--- a/example/excel_example.xlsx
+++ b/example/excel_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git_directory\excel2mmcif\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\tmp_excel2mmcif_working_directory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3378,7 +3378,7 @@
   <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B10"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8480,9 +8480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8940,7 +8938,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B5" sqref="B5:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9065,7 +9063,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J1048576">
       <formula1>"Length of the shorter sequence, Number of aligned positions (including gaps), Number of aligned residue pairs (not including gaps), Arithmetic mean sequence length, Other"</formula1>
     </dataValidation>
@@ -9074,6 +9072,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L1048576">
       <formula1>external_file_id</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1048576">
+      <formula1>starting_model_id</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/example/excel_example.xlsx
+++ b/example/excel_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\tmp_excel2mmcif_working_directory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git_directory\excel2mmcif\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2303,9 +2303,6 @@
     <t>Is the data deposited in a database? (yes/no)</t>
   </si>
   <si>
-    <t>An identifier used to connect to the external files given in the 'External_files' tab. Please give unique identifier here.</t>
-  </si>
-  <si>
     <t>What does the reference refer to? Please select.</t>
   </si>
   <si>
@@ -2399,9 +2396,6 @@
     <t>The dataset list ID (Tab 'Dataset')</t>
   </si>
   <si>
-    <t>How was the starting model obtained? (In case of 'comparative model', referes to Tab 'Starting_comparative_model')</t>
-  </si>
-  <si>
     <t>An ID for the step in the modeling protocol</t>
   </si>
   <si>
@@ -2859,6 +2853,12 @@
   </si>
   <si>
     <t>Each row has a unique ID in the first column. This has to be filled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An identifier used to connect to the external files given in the 'External_files' tab. </t>
+  </si>
+  <si>
+    <t>How was the starting model obtained? (In case of 'comparative model', refers to Tab 'Starting_comparative_model')</t>
   </si>
 </sst>
 </file>
@@ -3378,14 +3378,14 @@
   <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3401,7 +3401,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3409,7 +3409,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3417,7 +3417,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3425,7 +3425,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3433,7 +3433,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3441,7 +3441,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3449,7 +3449,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
   </sheetData>
@@ -3469,7 +3469,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="22" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
@@ -3477,37 +3477,37 @@
         <v>739</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>786</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>858</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>787</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>859</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>788</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>860</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>789</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>861</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>862</v>
-      </c>
-      <c r="G2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>790</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="J2" s="22" t="s">
         <v>791</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>792</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="L2" s="22" t="s">
         <v>793</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>794</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -3612,7 +3612,7 @@
         <v>162</v>
       </c>
       <c r="I5" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="L5">
         <v>2</v>
@@ -3663,7 +3663,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="22" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -3671,28 +3671,28 @@
         <v>739</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>795</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>862</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>796</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>797</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>864</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>798</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="H2" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>799</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>800</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>865</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -3836,7 +3836,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="22" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
@@ -3844,34 +3844,34 @@
         <v>739</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>800</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>801</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>802</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="E2" s="22" t="s">
+        <v>865</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>866</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>867</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>868</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>869</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>803</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>804</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>867</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>868</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>869</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>870</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>871</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>805</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="63" hidden="1" x14ac:dyDescent="0.25">
@@ -4346,7 +4346,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="22" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
@@ -4354,31 +4354,31 @@
         <v>739</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>805</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>871</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>872</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>806</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>807</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>873</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>874</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>808</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>809</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>810</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="J2" s="22" t="s">
         <v>811</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>812</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
@@ -4450,7 +4450,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4476,7 +4476,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4549,7 +4549,7 @@
   <sheetData>
     <row r="1" spans="1:114" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B1" s="26"/>
       <c r="E1" s="26"/>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="2" spans="1:114" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>183</v>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>201</v>
@@ -4741,10 +4741,10 @@
         <v>203</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="L3" s="25" t="s">
         <v>204</v>
@@ -5294,37 +5294,37 @@
         <v>370</v>
       </c>
       <c r="CD4" s="16" t="s">
+        <v>877</v>
+      </c>
+      <c r="CE4" s="15" t="s">
+        <v>878</v>
+      </c>
+      <c r="CF4" s="15" t="s">
         <v>879</v>
       </c>
-      <c r="CE4" s="15" t="s">
+      <c r="CG4" s="15" t="s">
         <v>880</v>
       </c>
-      <c r="CF4" s="15" t="s">
+      <c r="CH4" s="15" t="s">
         <v>881</v>
       </c>
-      <c r="CG4" s="15" t="s">
+      <c r="CI4" s="15" t="s">
         <v>882</v>
       </c>
-      <c r="CH4" s="15" t="s">
+      <c r="CJ4" s="15" t="s">
         <v>883</v>
       </c>
-      <c r="CI4" s="15" t="s">
+      <c r="CK4" s="15" t="s">
         <v>884</v>
       </c>
-      <c r="CJ4" s="15" t="s">
+      <c r="CL4" s="15" t="s">
         <v>885</v>
       </c>
-      <c r="CK4" s="15" t="s">
+      <c r="CM4" s="15" t="s">
         <v>886</v>
       </c>
-      <c r="CL4" s="15" t="s">
+      <c r="CN4" s="9" t="s">
         <v>887</v>
-      </c>
-      <c r="CM4" s="15" t="s">
-        <v>888</v>
-      </c>
-      <c r="CN4" s="9" t="s">
-        <v>889</v>
       </c>
       <c r="CP4" s="16" t="s">
         <v>371</v>
@@ -5399,7 +5399,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E5" s="4">
         <v>2</v>
@@ -5408,15 +5408,15 @@
         <v>178</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="7" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>383</v>
@@ -5464,7 +5464,7 @@
         <v>394</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5" t="s">
@@ -5507,7 +5507,7 @@
         <v>176</v>
       </c>
       <c r="AV5" s="5" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="AW5" s="5">
         <v>1</v>
@@ -5528,13 +5528,13 @@
         <v>176</v>
       </c>
       <c r="BC5" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="BD5" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="BE5" s="5" t="s">
         <v>914</v>
-      </c>
-      <c r="BD5" s="4" t="s">
-        <v>915</v>
-      </c>
-      <c r="BE5" s="5" t="s">
-        <v>916</v>
       </c>
       <c r="BF5" s="4" t="s">
         <v>399</v>
@@ -5675,7 +5675,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
@@ -5684,15 +5684,15 @@
         <v>178</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="7" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>383</v>
@@ -5740,7 +5740,7 @@
         <v>394</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5" t="s">
@@ -5783,7 +5783,7 @@
         <v>176</v>
       </c>
       <c r="AV6" s="5" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="AW6" s="5">
         <v>1</v>
@@ -5804,13 +5804,13 @@
         <v>176</v>
       </c>
       <c r="BC6" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="BD6" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="BE6" s="5" t="s">
         <v>914</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>915</v>
-      </c>
-      <c r="BE6" s="5" t="s">
-        <v>916</v>
       </c>
       <c r="BF6" s="4" t="s">
         <v>399</v>
@@ -6195,7 +6195,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="22" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
@@ -6203,13 +6203,13 @@
         <v>739</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>813</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>814</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>815</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>816</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
@@ -6291,7 +6291,7 @@
         <v>532</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>531</v>
@@ -6520,7 +6520,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="22" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
@@ -6528,13 +6528,13 @@
         <v>739</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -6870,7 +6870,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="22" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
@@ -6878,19 +6878,19 @@
         <v>739</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>816</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>817</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>876</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>818</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>819</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>878</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>820</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -7449,7 +7449,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="22" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
@@ -7457,7 +7457,7 @@
         <v>739</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>735</v>
@@ -7553,10 +7553,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
   </sheetData>
@@ -7592,7 +7592,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="22" customFormat="1" ht="299.25" x14ac:dyDescent="0.25">
@@ -7600,40 +7600,40 @@
         <v>739</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>750</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>751</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>752</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>753</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>754</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="H2" s="22" t="s">
+        <v>755</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>756</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>757</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>758</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>838</v>
+      </c>
+      <c r="M2" s="22" t="s">
         <v>839</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>755</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>756</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>757</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>758</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>759</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>840</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="63" hidden="1" x14ac:dyDescent="0.25">
@@ -7879,7 +7879,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7893,10 +7895,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="22" customFormat="1" ht="189.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="22" customFormat="1" ht="174" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>739</v>
       </c>
@@ -7904,43 +7906,43 @@
         <v>740</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>741</v>
       </c>
       <c r="F2" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>829</v>
+      </c>
+      <c r="H2" s="22" t="s">
         <v>830</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="I2" s="22" t="s">
+        <v>926</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>831</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>832</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="L2" s="22" t="s">
+        <v>833</v>
+      </c>
+      <c r="M2" s="22" t="s">
         <v>742</v>
       </c>
-      <c r="J2" s="22" t="s">
-        <v>833</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>834</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>835</v>
-      </c>
-      <c r="M2" s="22" t="s">
+      <c r="N2" s="22" t="s">
         <v>743</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="O2" s="22" t="s">
         <v>744</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8078,7 +8080,7 @@
         <v>504</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8119,7 +8121,7 @@
         <v>505</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -8182,7 +8184,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
@@ -8190,22 +8192,22 @@
         <v>739</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>745</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>840</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>746</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>842</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>747</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>748</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>749</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -8262,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D5" t="s">
         <v>86</v>
@@ -8271,7 +8273,7 @@
         <v>106</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -8282,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D6" t="s">
         <v>86</v>
@@ -8291,7 +8293,7 @@
         <v>106</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -8302,7 +8304,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D7" t="s">
         <v>86</v>
@@ -8311,7 +8313,7 @@
         <v>106</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -8376,7 +8378,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="22" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
@@ -8480,7 +8482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8492,7 +8496,7 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="22" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
@@ -8500,58 +8504,58 @@
         <v>739</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>841</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>842</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>761</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>843</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="F2" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>844</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>762</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="H2" s="22" t="s">
+        <v>764</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>845</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>763</v>
-      </c>
-      <c r="G2" s="22" t="s">
+      <c r="J2" s="22" t="s">
+        <v>765</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>766</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>768</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>769</v>
+      </c>
+      <c r="O2" s="22" t="s">
         <v>846</v>
       </c>
-      <c r="H2" s="22" t="s">
-        <v>765</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>847</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>766</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>767</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>768</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>769</v>
-      </c>
-      <c r="N2" s="22" t="s">
+      <c r="P2" s="22" t="s">
+        <v>927</v>
+      </c>
+      <c r="Q2" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="O2" s="22" t="s">
-        <v>848</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>774</v>
-      </c>
-      <c r="Q2" s="22" t="s">
+      <c r="R2" s="22" t="s">
         <v>771</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="S2" s="22" t="s">
         <v>772</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="63" hidden="1" x14ac:dyDescent="0.25">
@@ -8692,7 +8696,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -8704,10 +8708,10 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -8748,7 +8752,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -8760,10 +8764,10 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -8804,7 +8808,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -8816,10 +8820,10 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -8860,7 +8864,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -8872,10 +8876,10 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -8953,37 +8957,37 @@
         <v>739</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>759</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>760</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>761</v>
-      </c>
       <c r="D2" s="22" t="s">
+        <v>847</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>848</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>849</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>850</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>851</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>852</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="J2" s="22" t="s">
         <v>853</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>854</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="L2" s="22" t="s">
         <v>855</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>856</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
@@ -9097,7 +9101,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="22" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
@@ -9105,46 +9109,46 @@
         <v>739</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>774</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>773</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>856</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>857</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>775</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>776</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>775</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>858</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>859</v>
-      </c>
-      <c r="F2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>777</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>778</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="J2" s="22" t="s">
         <v>779</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>780</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="L2" s="22" t="s">
         <v>781</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="M2" s="22" t="s">
         <v>782</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="N2" s="22" t="s">
         <v>783</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="O2" s="22" t="s">
         <v>784</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>785</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="31.5" hidden="1" x14ac:dyDescent="0.25">

--- a/example/excel_example.xlsx
+++ b/example/excel_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\HankeC\work\for_PDB\excel2mmcif\20191031_excel2mmcif_addition_of_lifetime_based_analysis\20191106_preparation_of_T4L_files\raw_files_for_excel2mmcif\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\excel2mmcif_working_directory\tmp_directory_for_comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,30 +13,31 @@
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="19" r:id="rId1"/>
-    <sheet name="Citation" sheetId="14" r:id="rId2"/>
-    <sheet name="Entity" sheetId="1" r:id="rId3"/>
-    <sheet name="Dataset" sheetId="4" r:id="rId4"/>
-    <sheet name="External_files" sheetId="5" r:id="rId5"/>
-    <sheet name="Software" sheetId="13" r:id="rId6"/>
-    <sheet name="Instance" sheetId="3" r:id="rId7"/>
-    <sheet name="Starting_comparative_model" sheetId="16" r:id="rId8"/>
-    <sheet name="Modeling_protocol" sheetId="6" r:id="rId9"/>
-    <sheet name="Modeling_post_process" sheetId="15" r:id="rId10"/>
-    <sheet name="Multi-state modeling" sheetId="7" r:id="rId11"/>
-    <sheet name="Models" sheetId="2" r:id="rId12"/>
-    <sheet name="Ensemble Info" sheetId="17" r:id="rId13"/>
-    <sheet name="Reference_measurements" sheetId="20" r:id="rId14"/>
-    <sheet name="FLR" sheetId="8" r:id="rId15"/>
-    <sheet name="FLR_FPS_MPP_group" sheetId="18" r:id="rId16"/>
-    <sheet name="FLR_FPS_global_parameters" sheetId="12" r:id="rId17"/>
-    <sheet name="FLR_FRET_Model_distances" sheetId="10" r:id="rId18"/>
-    <sheet name="FLR_FRET_Model_quality" sheetId="11" r:id="rId19"/>
-    <sheet name="for_internal_use_only" sheetId="9" state="hidden" r:id="rId20"/>
+    <sheet name="General" sheetId="21" r:id="rId2"/>
+    <sheet name="Citation" sheetId="14" r:id="rId3"/>
+    <sheet name="Entity" sheetId="1" r:id="rId4"/>
+    <sheet name="Dataset" sheetId="4" r:id="rId5"/>
+    <sheet name="External_files" sheetId="5" r:id="rId6"/>
+    <sheet name="Software" sheetId="13" r:id="rId7"/>
+    <sheet name="Instance" sheetId="3" r:id="rId8"/>
+    <sheet name="Starting_comparative_model" sheetId="16" r:id="rId9"/>
+    <sheet name="Modeling_protocol" sheetId="6" r:id="rId10"/>
+    <sheet name="Modeling_post_process" sheetId="15" r:id="rId11"/>
+    <sheet name="Multi-state modeling" sheetId="7" r:id="rId12"/>
+    <sheet name="Models" sheetId="2" r:id="rId13"/>
+    <sheet name="Ensemble Info" sheetId="17" r:id="rId14"/>
+    <sheet name="Reference_measurements" sheetId="20" r:id="rId15"/>
+    <sheet name="FLR" sheetId="8" r:id="rId16"/>
+    <sheet name="FLR_FPS_MPP_group" sheetId="18" r:id="rId17"/>
+    <sheet name="FLR_FPS_global_parameters" sheetId="12" r:id="rId18"/>
+    <sheet name="FLR_FRET_Model_distances" sheetId="10" r:id="rId19"/>
+    <sheet name="FLR_FRET_Model_quality" sheetId="11" r:id="rId20"/>
+    <sheet name="for_internal_use_only" sheetId="9" state="hidden" r:id="rId21"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId21"/>
     <externalReference r:id="rId22"/>
     <externalReference r:id="rId23"/>
+    <externalReference r:id="rId24"/>
   </externalReferences>
   <definedNames>
     <definedName name="citation_id">Citation!$A$5:$A$1048576</definedName>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="1049">
   <si>
     <t>Model number</t>
   </si>
@@ -3209,6 +3210,21 @@
   </si>
   <si>
     <t>"^2"</t>
+  </si>
+  <si>
+    <t>Description the entry</t>
+  </si>
+  <si>
+    <t>Title of the entry</t>
+  </si>
+  <si>
+    <t>IHM_Struct_id</t>
+  </si>
+  <si>
+    <t>IHM_Struct_title</t>
+  </si>
+  <si>
+    <t>Title of the entry is given here.</t>
   </si>
 </sst>
 </file>
@@ -4148,7 +4164,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4233,6 +4249,275 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="20" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>689</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>688</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>771</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>772</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>690</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>691</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>692</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>693</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>694</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>696</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>697</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>698</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="11" customFormat="1" ht="63" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="84">
+        <v>1</v>
+      </c>
+      <c r="B5" s="84">
+        <v>1</v>
+      </c>
+      <c r="C5" s="84">
+        <v>1</v>
+      </c>
+      <c r="D5" s="84">
+        <v>1</v>
+      </c>
+      <c r="E5" s="84">
+        <v>1</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>991</v>
+      </c>
+      <c r="G5" s="84" t="s">
+        <v>992</v>
+      </c>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84">
+        <v>0</v>
+      </c>
+      <c r="J5" s="84">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="84" t="s">
+        <v>993</v>
+      </c>
+      <c r="L5" s="84" t="s">
+        <v>994</v>
+      </c>
+      <c r="M5" s="84" t="s">
+        <v>993</v>
+      </c>
+      <c r="N5" s="84" t="s">
+        <v>994</v>
+      </c>
+      <c r="O5" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="84">
+        <v>2</v>
+      </c>
+      <c r="B6" s="84">
+        <v>1</v>
+      </c>
+      <c r="C6" s="84">
+        <v>2</v>
+      </c>
+      <c r="D6" s="84">
+        <v>1</v>
+      </c>
+      <c r="E6" s="84">
+        <v>1</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>991</v>
+      </c>
+      <c r="G6" s="84" t="s">
+        <v>995</v>
+      </c>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="84">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="84" t="s">
+        <v>993</v>
+      </c>
+      <c r="L6" s="84" t="s">
+        <v>994</v>
+      </c>
+      <c r="M6" s="84" t="s">
+        <v>993</v>
+      </c>
+      <c r="N6" s="84" t="s">
+        <v>994</v>
+      </c>
+      <c r="O6" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O1048576">
+      <formula1>Software_id</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1048576">
+      <formula1>Dataset_group_id</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576">
+      <formula1>structure_assembly_id</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -4420,7 +4705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
@@ -4613,7 +4898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -5114,7 +5399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -5312,7 +5597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR82"/>
   <sheetViews>
@@ -8167,7 +8452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DR204"/>
   <sheetViews>
@@ -32139,7 +32424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -32229,7 +32514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V7"/>
   <sheetViews>
@@ -32554,7 +32839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -32904,7 +33189,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B1" s="113"/>
+    </row>
+    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>654</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="113"/>
+      <c r="B3" s="113" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -33157,7 +33493,330 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>389</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" t="s">
+        <v>85</v>
+      </c>
+      <c r="N14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>56</v>
+      </c>
+      <c r="N22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -33287,330 +33946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" t="s">
-        <v>389</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N8" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N11" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>85</v>
-      </c>
-      <c r="K12" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" t="s">
-        <v>66</v>
-      </c>
-      <c r="N12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" t="s">
-        <v>85</v>
-      </c>
-      <c r="N14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K15" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="K16" t="s">
-        <v>50</v>
-      </c>
-      <c r="N16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K17" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K18" t="s">
-        <v>52</v>
-      </c>
-      <c r="N18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K19" t="s">
-        <v>53</v>
-      </c>
-      <c r="N19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K20" t="s">
-        <v>54</v>
-      </c>
-      <c r="N20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K21" t="s">
-        <v>55</v>
-      </c>
-      <c r="N21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K22" t="s">
-        <v>56</v>
-      </c>
-      <c r="N22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
@@ -34048,7 +34384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U8"/>
   <sheetViews>
@@ -34388,7 +34724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H202"/>
   <sheetViews>
@@ -35142,7 +35478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
@@ -35354,7 +35690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB13"/>
   <sheetViews>
@@ -35841,7 +36177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
@@ -36051,273 +36387,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="17.25" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="20" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>654</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>689</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>688</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>771</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>772</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>690</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>691</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>692</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>693</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>695</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>696</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>697</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>698</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="11" customFormat="1" ht="63" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="84">
-        <v>1</v>
-      </c>
-      <c r="B5" s="84">
-        <v>1</v>
-      </c>
-      <c r="C5" s="84">
-        <v>1</v>
-      </c>
-      <c r="D5" s="84">
-        <v>1</v>
-      </c>
-      <c r="E5" s="84">
-        <v>1</v>
-      </c>
-      <c r="F5" s="84" t="s">
-        <v>991</v>
-      </c>
-      <c r="G5" s="84" t="s">
-        <v>992</v>
-      </c>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84">
-        <v>0</v>
-      </c>
-      <c r="J5" s="84">
-        <v>1000</v>
-      </c>
-      <c r="K5" s="84" t="s">
-        <v>993</v>
-      </c>
-      <c r="L5" s="84" t="s">
-        <v>994</v>
-      </c>
-      <c r="M5" s="84" t="s">
-        <v>993</v>
-      </c>
-      <c r="N5" s="84" t="s">
-        <v>994</v>
-      </c>
-      <c r="O5" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="84">
-        <v>2</v>
-      </c>
-      <c r="B6" s="84">
-        <v>1</v>
-      </c>
-      <c r="C6" s="84">
-        <v>2</v>
-      </c>
-      <c r="D6" s="84">
-        <v>1</v>
-      </c>
-      <c r="E6" s="84">
-        <v>1</v>
-      </c>
-      <c r="F6" s="84" t="s">
-        <v>991</v>
-      </c>
-      <c r="G6" s="84" t="s">
-        <v>995</v>
-      </c>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84">
-        <v>1000</v>
-      </c>
-      <c r="J6" s="84">
-        <v>1000</v>
-      </c>
-      <c r="K6" s="84" t="s">
-        <v>993</v>
-      </c>
-      <c r="L6" s="84" t="s">
-        <v>994</v>
-      </c>
-      <c r="M6" s="84" t="s">
-        <v>993</v>
-      </c>
-      <c r="N6" s="84" t="s">
-        <v>994</v>
-      </c>
-      <c r="O6" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O8" s="2"/>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O1048576">
-      <formula1>Software_id</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1048576">
-      <formula1>Dataset_group_id</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576">
-      <formula1>structure_assembly_id</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/example/excel_example.xlsx
+++ b/example/excel_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\excel2mmcif_working_directory\tmp_directory_for_comparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\tmp_excel2mmcif_working_directory\example\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="1064">
   <si>
     <t>Model number</t>
   </si>
@@ -3225,6 +3225,51 @@
   </si>
   <si>
     <t>Title of the entry is given here.</t>
+  </si>
+  <si>
+    <t>lifetime-based</t>
+  </si>
+  <si>
+    <t>Fit Model 1</t>
+  </si>
+  <si>
+    <t>Details on the Lifetime fit model (e.g. equation in Publication)</t>
+  </si>
+  <si>
+    <t>Reference measurement 1</t>
+  </si>
+  <si>
+    <t>Reference measurement group 1</t>
+  </si>
+  <si>
+    <t>Sample conditions</t>
+  </si>
+  <si>
+    <t>0.5;0.3;0.2</t>
+  </si>
+  <si>
+    <t>4.1;1.5;0.8</t>
+  </si>
+  <si>
+    <t>Lifetime fit</t>
+  </si>
+  <si>
+    <t>(D)b8_(A)a12</t>
+  </si>
+  <si>
+    <t>(D)b8</t>
+  </si>
+  <si>
+    <t>Donor in b8_a12</t>
+  </si>
+  <si>
+    <t>Acceptor in b8_a12</t>
+  </si>
+  <si>
+    <t>Donor only for (D)b8</t>
+  </si>
+  <si>
+    <t>Donor position in D-only sample (D)b8</t>
   </si>
 </sst>
 </file>
@@ -4164,7 +4209,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6114,45 +6159,119 @@
         <v>911</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="B5" s="57"/>
-      <c r="G5" s="66"/>
-      <c r="J5" s="57"/>
+    <row r="5" spans="1:70" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1</v>
+      </c>
+      <c r="G5" s="66" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>1062</v>
+      </c>
       <c r="K5" s="57"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="6"/>
+      <c r="L5" s="108" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M5" s="109" t="s">
+        <v>1014</v>
+      </c>
+      <c r="N5" s="109" t="s">
+        <v>1015</v>
+      </c>
+      <c r="O5" s="109" t="s">
+        <v>1016</v>
+      </c>
+      <c r="P5" s="109" t="s">
+        <v>1014</v>
+      </c>
+      <c r="Q5" s="109" t="s">
+        <v>1015</v>
+      </c>
+      <c r="R5" s="108" t="s">
+        <v>1017</v>
+      </c>
+      <c r="S5" s="98" t="s">
+        <v>1018</v>
+      </c>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109" t="s">
+        <v>1019</v>
+      </c>
+      <c r="V5" s="98" t="s">
+        <v>1020</v>
+      </c>
+      <c r="W5" s="98"/>
+      <c r="X5" s="108" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y5" s="98" t="s">
+        <v>1022</v>
+      </c>
+      <c r="Z5" s="109"/>
+      <c r="AA5" s="109" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AB5" s="109"/>
+      <c r="AC5" s="98"/>
+      <c r="AD5" s="109"/>
+      <c r="AE5" s="109"/>
+      <c r="AF5" s="108" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AG5" s="98" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AH5" s="109"/>
+      <c r="AI5" s="98"/>
       <c r="AJ5" s="4"/>
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
       <c r="AM5" s="5"/>
       <c r="AN5" s="5"/>
       <c r="AO5" s="5"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="5"/>
-      <c r="AT5" s="5"/>
-      <c r="AU5" s="5"/>
-      <c r="AV5" s="5"/>
+      <c r="AP5" s="108">
+        <v>2</v>
+      </c>
+      <c r="AQ5" s="109">
+        <v>8</v>
+      </c>
+      <c r="AR5" s="109" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AS5" s="109" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AT5" s="109" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU5" s="109" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV5" s="109" t="s">
+        <v>1059</v>
+      </c>
       <c r="AW5" s="5"/>
       <c r="AX5" s="5"/>
       <c r="AY5" s="5"/>
@@ -6160,19 +6279,32 @@
       <c r="BA5" s="5"/>
       <c r="BB5" s="5"/>
       <c r="BC5" s="5"/>
-      <c r="BD5" s="59"/>
+      <c r="BD5" s="59" t="s">
+        <v>1063</v>
+      </c>
       <c r="BE5" s="5"/>
-      <c r="BF5" s="75"/>
-      <c r="BG5" s="64"/>
-      <c r="BH5" s="5"/>
+      <c r="BF5" s="108" t="s">
+        <v>1034</v>
+      </c>
+      <c r="BG5" s="98" t="s">
+        <v>1035</v>
+      </c>
+      <c r="BH5" s="109"/>
       <c r="BI5" s="5"/>
       <c r="BJ5" s="6"/>
       <c r="BK5" s="6"/>
-      <c r="BL5" s="5"/>
+      <c r="BL5" s="5" t="s">
+        <v>949</v>
+      </c>
       <c r="BM5" s="5"/>
       <c r="BN5" s="5"/>
       <c r="BO5" s="5"/>
-      <c r="BQ5" s="44"/>
+      <c r="BP5" s="18" t="s">
+        <v>1055</v>
+      </c>
+      <c r="BQ5" s="44" t="s">
+        <v>1056</v>
+      </c>
     </row>
     <row r="6" spans="1:70" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="57"/>
@@ -8428,24 +8560,27 @@
       <c r="Y82" s="70"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576">
       <formula1>Entity_assembly_id</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1048576">
       <formula1>"liquid,vitrified,other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA5:BB10 BN5:BN10 AT5:AU70 BL5:BL70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA5:BB10 BN5:BN10 BL5:BL70 AT5:AU70">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW5:AW10 AP5:AP70">
       <formula1>entity_id</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N70 Q5:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:Q1048576 N5:N70">
       <formula1>"covalent,ligand"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:M70 P5:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P1048576 M5:M70">
       <formula1>"extrinsic,instrinsic"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5">
+      <formula1>"extrinsic,intrinsic"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8456,8 +8591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DR204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="AV3" workbookViewId="0">
+      <selection activeCell="BM6" sqref="BM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10018,77 +10153,192 @@
       <c r="DQ6" s="107"/>
       <c r="DR6" s="107"/>
     </row>
-    <row r="7" spans="1:122" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="57"/>
+    <row r="7" spans="1:122" ht="110.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="109" t="s">
+        <v>1058</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="6"/>
+      <c r="J7" s="98" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K7" s="98" t="s">
+        <v>1040</v>
+      </c>
+      <c r="L7" s="80" t="s">
+        <v>1041</v>
+      </c>
+      <c r="M7" s="108" t="s">
+        <v>1013</v>
+      </c>
+      <c r="N7" s="109" t="s">
+        <v>1014</v>
+      </c>
+      <c r="O7" s="109" t="s">
+        <v>1015</v>
+      </c>
+      <c r="P7" s="109" t="s">
+        <v>1016</v>
+      </c>
+      <c r="Q7" s="109" t="s">
+        <v>1014</v>
+      </c>
+      <c r="R7" s="109" t="s">
+        <v>1015</v>
+      </c>
+      <c r="S7" s="108" t="s">
+        <v>1017</v>
+      </c>
+      <c r="T7" s="98" t="s">
+        <v>1018</v>
+      </c>
+      <c r="U7" s="109"/>
+      <c r="V7" s="109" t="s">
+        <v>1019</v>
+      </c>
+      <c r="W7" s="98" t="s">
+        <v>1020</v>
+      </c>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="108" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Z7" s="98" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AA7" s="109"/>
+      <c r="AB7" s="109" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AC7" s="109" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AD7" s="98" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AE7" s="109"/>
+      <c r="AF7" s="109" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AG7" s="108" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AH7" s="98" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AI7" s="109" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AJ7" s="98" t="s">
+        <v>1027</v>
+      </c>
       <c r="AK7" s="4"/>
       <c r="AL7" s="5"/>
       <c r="AM7" s="5"/>
       <c r="AN7" s="69"/>
       <c r="AO7" s="51"/>
       <c r="AP7" s="5"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="69"/>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="5"/>
-      <c r="AW7" s="5"/>
-      <c r="AX7" s="5"/>
-      <c r="AY7" s="5"/>
-      <c r="AZ7" s="5"/>
-      <c r="BA7" s="69"/>
-      <c r="BB7" s="5"/>
-      <c r="BC7" s="5"/>
-      <c r="BD7" s="5"/>
-      <c r="BE7" s="59"/>
-      <c r="BF7" s="57"/>
-      <c r="BH7" s="49"/>
-      <c r="BI7" s="5"/>
-      <c r="BJ7" s="5"/>
-      <c r="BK7" s="50"/>
-      <c r="BL7" s="6"/>
-      <c r="BM7" s="5"/>
-      <c r="BN7" s="5"/>
-      <c r="BO7" s="5"/>
-      <c r="BP7" s="5"/>
-      <c r="BQ7" s="68"/>
-      <c r="BR7" s="5"/>
-      <c r="BS7" s="38"/>
+      <c r="AQ7" s="108">
+        <v>2</v>
+      </c>
+      <c r="AR7" s="109">
+        <v>8</v>
+      </c>
+      <c r="AS7" s="109" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AT7" s="109" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AU7" s="109" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV7" s="109" t="s">
+        <v>140</v>
+      </c>
+      <c r="AW7" s="109" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AX7" s="109">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="109">
+        <v>12</v>
+      </c>
+      <c r="AZ7" s="109" t="s">
+        <v>1028</v>
+      </c>
+      <c r="BA7" s="109" t="s">
+        <v>1029</v>
+      </c>
+      <c r="BB7" s="109" t="s">
+        <v>143</v>
+      </c>
+      <c r="BC7" s="109" t="s">
+        <v>140</v>
+      </c>
+      <c r="BD7" s="109" t="s">
+        <v>1031</v>
+      </c>
+      <c r="BE7" s="108" t="s">
+        <v>1060</v>
+      </c>
+      <c r="BF7" s="109" t="s">
+        <v>1061</v>
+      </c>
+      <c r="BG7" s="108" t="s">
+        <v>1034</v>
+      </c>
+      <c r="BH7" s="98" t="s">
+        <v>1035</v>
+      </c>
+      <c r="BI7" s="109"/>
+      <c r="BJ7" s="109" t="s">
+        <v>1036</v>
+      </c>
+      <c r="BK7" s="98" t="s">
+        <v>1037</v>
+      </c>
+      <c r="BL7" s="98"/>
+      <c r="BM7" s="109" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN7" s="109">
+        <v>-1</v>
+      </c>
+      <c r="BO7" s="109" t="s">
+        <v>143</v>
+      </c>
+      <c r="BP7" s="109">
+        <v>-1</v>
+      </c>
+      <c r="BQ7" s="108">
+        <v>52</v>
+      </c>
+      <c r="BR7" s="109">
+        <v>53.97</v>
+      </c>
+      <c r="BS7" s="38" t="s">
+        <v>1049</v>
+      </c>
       <c r="BT7" s="4"/>
       <c r="BU7" s="5"/>
       <c r="BV7" s="5"/>
@@ -10097,40 +10347,100 @@
       <c r="BY7" s="5"/>
       <c r="BZ7" s="5"/>
       <c r="CA7" s="5"/>
-      <c r="CB7" s="43"/>
-      <c r="CC7" s="44"/>
+      <c r="CB7" s="43" t="s">
+        <v>1050</v>
+      </c>
+      <c r="CC7" s="44" t="s">
+        <v>1051</v>
+      </c>
       <c r="CD7" s="44"/>
-      <c r="CE7" s="44"/>
-      <c r="CF7" s="44"/>
+      <c r="CE7" s="44">
+        <v>1</v>
+      </c>
+      <c r="CF7" s="44">
+        <v>1</v>
+      </c>
       <c r="CG7" s="44"/>
-      <c r="CH7" s="4"/>
-      <c r="CI7" s="62"/>
-      <c r="CJ7" s="68"/>
+      <c r="CH7" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="CI7" s="62">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="CJ7" s="68" t="s">
+        <v>1039</v>
+      </c>
       <c r="CK7" s="5"/>
-      <c r="CL7" s="4"/>
-      <c r="CM7" s="5"/>
-      <c r="CN7" s="5"/>
-      <c r="CO7" s="5"/>
-      <c r="CP7" s="5"/>
-      <c r="CQ7" s="5"/>
-      <c r="CR7" s="5"/>
-      <c r="CS7" s="5"/>
-      <c r="CT7" s="5"/>
-      <c r="CU7" s="5"/>
-      <c r="CV7" s="5"/>
+      <c r="CL7" s="4">
+        <v>3</v>
+      </c>
+      <c r="CM7" s="5">
+        <v>1</v>
+      </c>
+      <c r="CN7" s="5">
+        <v>50.2</v>
+      </c>
+      <c r="CO7" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="CP7" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="CQ7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="CR7" s="5">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="CS7" s="5">
+        <v>1</v>
+      </c>
+      <c r="CT7" s="5">
+        <v>1</v>
+      </c>
+      <c r="CU7" s="5">
+        <v>1</v>
+      </c>
+      <c r="CV7" s="5">
+        <v>1</v>
+      </c>
       <c r="CW7"/>
-      <c r="CX7" s="4"/>
-      <c r="CY7" s="5"/>
-      <c r="CZ7" s="5"/>
-      <c r="DA7" s="5"/>
-      <c r="DB7" s="5"/>
-      <c r="DC7" s="5"/>
-      <c r="DD7" s="63"/>
-      <c r="DE7" s="5"/>
-      <c r="DF7" s="5"/>
-      <c r="DG7" s="5"/>
-      <c r="DH7" s="5"/>
-      <c r="DI7" s="5"/>
+      <c r="CX7" s="108">
+        <v>17</v>
+      </c>
+      <c r="CY7" s="109">
+        <v>20</v>
+      </c>
+      <c r="CZ7" s="109">
+        <v>4.5</v>
+      </c>
+      <c r="DA7" s="109">
+        <v>5</v>
+      </c>
+      <c r="DB7" s="109">
+        <v>4.5</v>
+      </c>
+      <c r="DC7" s="109">
+        <v>1.5</v>
+      </c>
+      <c r="DD7" s="109">
+        <v>18</v>
+      </c>
+      <c r="DE7" s="109">
+        <v>22</v>
+      </c>
+      <c r="DF7" s="109">
+        <v>4.5</v>
+      </c>
+      <c r="DG7" s="109">
+        <v>11</v>
+      </c>
+      <c r="DH7" s="109">
+        <v>3</v>
+      </c>
+      <c r="DI7" s="109">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="8" spans="1:122" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -32394,13 +32704,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N1048576">
       <formula1>"extrinsic,instrinsic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O1048576 R5:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R1048576 O5:O1048576">
       <formula1>"covalent,ligand"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:Q1048576">
       <formula1>"extrinsic,intrinsic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ5:AQ1048576 AX5:AX1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX5:AX1048576 AQ5:AQ1048576">
       <formula1>entity_id</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU5:AV1048576 BB5:BC1048576 BM5:BM1048576 BO5:BO1048576">
@@ -32841,10 +33151,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D24"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -32929,10 +33239,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="112">
         <v>50.1</v>
@@ -32946,7 +33256,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="112">
         <v>50.1</v>
@@ -32957,10 +33267,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="112">
         <v>50.1</v>
@@ -32971,10 +33281,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="112">
+        <v>2</v>
+      </c>
+      <c r="C10" s="112">
         <v>3</v>
-      </c>
-      <c r="C10" s="112">
-        <v>2</v>
       </c>
       <c r="D10" s="112">
         <v>50.1</v>
@@ -32985,7 +33295,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="112">
         <v>1</v>
@@ -32999,7 +33309,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="112">
         <v>2</v>
@@ -33013,10 +33323,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="112">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" s="112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="112">
         <v>50.1</v>
@@ -33027,10 +33337,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="112">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="112">
         <v>50.1</v>
@@ -33041,10 +33351,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="112">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" s="112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="112">
         <v>50.1</v>
@@ -33055,10 +33365,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="112">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" s="112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="112">
         <v>50.1</v>
@@ -33069,7 +33379,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="112">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" s="112">
         <v>1</v>
@@ -33083,7 +33393,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="112">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" s="112">
         <v>2</v>
@@ -33097,10 +33407,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="112">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" s="112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" s="112">
         <v>50.1</v>
@@ -33111,10 +33421,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="112">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" s="112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="112">
         <v>50.1</v>
@@ -33125,10 +33435,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="112">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C21" s="112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="112">
         <v>50.1</v>
@@ -33139,10 +33449,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="112">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C22" s="112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="112">
         <v>50.1</v>
@@ -33153,7 +33463,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="112">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23" s="112">
         <v>1</v>
@@ -33167,12 +33477,152 @@
         <v>20</v>
       </c>
       <c r="B24" s="112">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C24" s="112">
         <v>2</v>
       </c>
       <c r="D24" s="112">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" s="113">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="113">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" s="113">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="113">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="113">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" s="113">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
         <v>50.1</v>
       </c>
     </row>
@@ -33951,7 +34401,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -35483,7 +35933,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -36182,7 +36632,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/example/excel_example.xlsx
+++ b/example/excel_example.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\excel2mmcif_working_directory\excel2mmcif_20200227\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git_directory\excel2mmcif\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="730" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="730"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="19" r:id="rId1"/>
@@ -4246,8 +4246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5685,7 +5685,7 @@
   <dimension ref="A1:BT82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5706,7 +5706,9 @@
     <col min="32" max="32" width="11" style="18" customWidth="1"/>
     <col min="33" max="35" width="11" customWidth="1"/>
     <col min="36" max="36" width="11" style="74" customWidth="1"/>
-    <col min="37" max="43" width="11" style="111" customWidth="1"/>
+    <col min="37" max="39" width="11" style="111" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="11" style="111" customWidth="1"/>
+    <col min="41" max="43" width="11" style="111" hidden="1" customWidth="1"/>
     <col min="44" max="44" width="11" style="18" customWidth="1"/>
     <col min="45" max="57" width="11" customWidth="1"/>
     <col min="58" max="58" width="11" style="74" customWidth="1"/>
@@ -8760,9 +8762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DT204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BZ4" workbookViewId="0">
-      <selection activeCell="CN8" sqref="CN8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>

--- a/example/excel_example.xlsx
+++ b/example/excel_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\HankeC\work\for_PDB\excel2mmcif\20230216_excel2mmcif_devel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B878BD1E-21E0-4AA6-AEF8-E6C583AB9AD6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78DB937-22F4-4218-8796-96B6BBB8AE90}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9420" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="1176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="1178">
   <si>
     <t>Model number</t>
   </si>
@@ -3612,6 +3612,12 @@
   </si>
   <si>
     <t>Template version 1.7</t>
+  </si>
+  <si>
+    <t>Details to the entity</t>
+  </si>
+  <si>
+    <t>IHM_Entity_Details</t>
   </si>
 </sst>
 </file>
@@ -4629,7 +4635,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4717,7 +4723,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4984,7 +4992,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5170,7 +5180,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5361,7 +5373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3412B954-CC29-49CA-9B82-95A52B6CE843}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5856,7 +5870,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5:S6 S9:S1048576" xr:uid="{87469BBC-41D2-412B-9F79-50B0C10F8004}">
       <formula1>equilibrium_constant_determination_method</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W5:Z5 Y6:Z6 W7:Z7 W9:Z1048576 W8:X8 Z8" xr:uid="{8E5DCD0E-3113-4254-B04E-6A1A19769DC7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y7:Z7 Y6:Z6 Y9:Z1048576 W8 Z8 W9:W1048576 W7 W5 Y5:Z5" xr:uid="{8E5DCD0E-3113-4254-B04E-6A1A19769DC7}">
       <formula1>FRET_analysis_ID</formula1>
     </dataValidation>
   </dataValidations>
@@ -5869,7 +5883,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -6368,7 +6384,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6564,7 +6582,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:BV82"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BC4" sqref="A4:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6876,7 +6896,7 @@
       <c r="BU3" s="31" t="s">
         <v>890</v>
       </c>
-      <c r="BV3" s="33" t="s">
+      <c r="BV3" s="31" t="s">
         <v>891</v>
       </c>
     </row>
@@ -9760,7 +9780,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:DW204"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9780,7 +9802,7 @@
     <col min="26" max="32" width="11" customWidth="1"/>
     <col min="33" max="33" width="11" style="18" customWidth="1"/>
     <col min="34" max="36" width="11" customWidth="1"/>
-    <col min="37" max="37" width="11" style="74" customWidth="1"/>
+    <col min="37" max="37" width="12.59765625" style="74" customWidth="1"/>
     <col min="38" max="40" width="11" style="111" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="11" style="111" customWidth="1"/>
     <col min="42" max="44" width="11" style="111" hidden="1" customWidth="1"/>
@@ -35818,7 +35840,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -36564,9 +36586,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D3" sqref="A3:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -36577,21 +36601,22 @@
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="21.09765625" customWidth="1"/>
     <col min="7" max="7" width="28.5" customWidth="1"/>
-    <col min="8" max="8" width="19.19921875" customWidth="1"/>
-    <col min="9" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="21.5" customWidth="1"/>
-    <col min="13" max="13" width="19.19921875" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="18" max="18" width="5.8984375" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="111" customWidth="1"/>
+    <col min="9" max="9" width="19.19921875" customWidth="1"/>
+    <col min="10" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="21.5" customWidth="1"/>
+    <col min="14" max="14" width="19.19921875" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="19" max="19" width="5.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="20" customFormat="1" ht="312" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="20" customFormat="1" ht="312" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -36613,26 +36638,29 @@
       <c r="G2" s="20" t="s">
         <v>656</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="75" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>657</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="J2" s="20" t="s">
         <v>658</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="K2" s="20" t="s">
         <v>659</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="L2" s="20" t="s">
         <v>660</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="M2" s="20" t="s">
         <v>740</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="N2" s="20" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -36654,26 +36682,29 @@
       <c r="G3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>330</v>
       </c>
@@ -36695,27 +36726,30 @@
       <c r="G4" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="70" t="s">
+        <v>1177</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" s="65" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65">
         <v>1</v>
       </c>
@@ -36737,17 +36771,18 @@
       <c r="G5" s="66" t="s">
         <v>1034</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="66"/>
+      <c r="I5" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="65" t="s">
+      <c r="J5" s="65" t="s">
         <v>1040</v>
       </c>
-      <c r="J5" s="111" t="s">
+      <c r="K5" s="111" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" s="65" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65">
         <v>2</v>
       </c>
@@ -36769,149 +36804,182 @@
       <c r="G6" s="66" t="s">
         <v>1035</v>
       </c>
-      <c r="H6" s="111" t="s">
+      <c r="H6" s="66"/>
+      <c r="I6" s="111" t="s">
         <v>95</v>
-      </c>
-      <c r="I6" s="111" t="s">
-        <v>1050</v>
       </c>
       <c r="J6" s="111" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="111" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="65" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G7" s="66"/>
-    </row>
-    <row r="8" spans="1:16" s="65" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="66"/>
+    </row>
+    <row r="8" spans="1:17" s="65" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G8" s="66"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H8" s="66"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="J9" s="65"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H9" s="66"/>
+      <c r="I9" s="2"/>
+      <c r="K9" s="65"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="J10" s="65"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H10" s="66"/>
+      <c r="I10" s="2"/>
+      <c r="K10" s="65"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="J11" s="65"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H11" s="66"/>
+      <c r="I11" s="2"/>
+      <c r="K11" s="65"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="J12" s="65"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H12" s="66"/>
+      <c r="I12" s="2"/>
+      <c r="K12" s="65"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H13" s="66"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H14" s="66"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H15" s="66"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="66"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="66"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="66"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="66"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="66"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="66"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H22" s="66"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H23" s="66"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="66"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="66"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="66"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="66"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H28" s="66"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H29" s="66"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="66"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H31" s="66"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H32" s="66"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H33" s="66"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H34" s="66"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H35" s="66"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H36" s="66"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="H37" s="66"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M10" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"PDB, PDB-Dev, Model Archive, Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{00000000-0002-0000-0300-000001000000}">
@@ -36920,7 +36988,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"genetically manipulated source, natural source, synthetic source"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H1048576" xr:uid="{00000000-0002-0000-0300-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1048576" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"cyclic-pseudo-peptide,other,peptide nucleic acid,polydeoxyribonucleotide,polydeoxyribonucleotide/polyribonucleotide,polypeptide(D),polypeptide(L),polyribonucleotide,polysaccharide(D),polysaccharide(L),N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -36932,7 +37000,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -36951,7 +37021,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="20" customFormat="1" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" s="20" customFormat="1" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -37058,7 +37128,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" s="7" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>517</v>
       </c>
@@ -37264,7 +37334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H202"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="A3:G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -37303,7 +37375,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -37326,7 +37398,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>352</v>
       </c>
@@ -38016,7 +38088,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -38053,8 +38127,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>491</v>
       </c>
@@ -38226,7 +38299,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="A3:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -38651,7 +38726,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/example/excel_example.xlsx
+++ b/example/excel_example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\HankeC\work\for_PDB\excel2mmcif\20230216_excel2mmcif_devel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\excel2mmcif\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78DB937-22F4-4218-8796-96B6BBB8AE90}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5189C1-F95B-4EDA-928A-AE314F4C6A39}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9420" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4635,7 +4635,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -36589,7 +36589,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:XFD4"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -36989,7 +36989,7 @@
       <formula1>"genetically manipulated source, natural source, synthetic source"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1048576" xr:uid="{00000000-0002-0000-0300-000003000000}">
-      <formula1>"cyclic-pseudo-peptide,other,peptide nucleic acid,polydeoxyribonucleotide,polydeoxyribonucleotide/polyribonucleotide,polypeptide(D),polypeptide(L),polyribonucleotide,polysaccharide(D),polysaccharide(L),N/A"</formula1>
+      <formula1>IHM_entity_polymer_type</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/example/excel_example.xlsx
+++ b/example/excel_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\excel2mmcif\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5189C1-F95B-4EDA-928A-AE314F4C6A39}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5D9535-6A53-4A5A-BD33-78E7954CE446}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9420" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4635,7 +4635,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4724,7 +4724,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4909,7 +4909,7 @@
         <v>1000</v>
       </c>
       <c r="K5" s="83" t="s">
-        <v>957</v>
+        <v>143</v>
       </c>
       <c r="L5" s="83" t="s">
         <v>958</v>
@@ -4954,7 +4954,7 @@
         <v>1000</v>
       </c>
       <c r="K6" s="83" t="s">
-        <v>957</v>
+        <v>143</v>
       </c>
       <c r="L6" s="83" t="s">
         <v>958</v>
@@ -4973,7 +4973,7 @@
       <c r="O8" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O1048576" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>Software_id</formula1>
     </dataValidation>
@@ -4982,6 +4982,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{00000000-0002-0000-0900-000002000000}">
       <formula1>structure_assembly_id</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K1048576 L5:L1048576 M5:M1048576 N5:N1048576" xr:uid="{D23FAE43-2C63-44D9-BF2D-2903DD20633F}">
+      <formula1>Yes_no_selection</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36092,8 +36095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/example/excel_example.xlsx
+++ b/example/excel_example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\excel2mmcif\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\HankeC\work\for_PDB\20230515_excel2mmcif_template_coloring\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5D9535-6A53-4A5A-BD33-78E7954CE446}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61A682C-9127-432E-94D3-B08A2DC0AFAB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9420" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="730" firstSheet="14" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="19" r:id="rId1"/>
@@ -34,20 +34,23 @@
     <sheet name="FLR_FPS_global_parameters" sheetId="12" r:id="rId19"/>
     <sheet name="FLR_FRET_Model_distances" sheetId="10" r:id="rId20"/>
     <sheet name="FLR_FRET_Model_quality" sheetId="11" r:id="rId21"/>
-    <sheet name="for_internal_use_only" sheetId="9" state="hidden" r:id="rId22"/>
+    <sheet name="for_internal_use_only" sheetId="9" r:id="rId22"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId23"/>
-    <externalReference r:id="rId24"/>
-  </externalReferences>
   <definedNames>
     <definedName name="citation_id">Citation!$A$5:$A$1048576</definedName>
+    <definedName name="Database_enumeration">for_internal_use_only!$L$2:$L$13</definedName>
+    <definedName name="Dataset_enumeration">for_internal_use_only!$K$2:$K$22</definedName>
     <definedName name="Dataset_group_id">Dataset!$C$5:$C$1048576</definedName>
     <definedName name="dataset_list_id">Dataset!$B$5:$B$1048576</definedName>
     <definedName name="Distance_restraint_id">FLR!$CQ$5:$CQ$1048576</definedName>
     <definedName name="Entity_assembly_id">Entity!$C$5:$C$1048576</definedName>
     <definedName name="entity_id">Entity!$B$5:$B$1048576</definedName>
     <definedName name="equilibrium_constant_determination_method">for_internal_use_only!$W$2:$W$4</definedName>
+    <definedName name="Experimental_Datasets">for_internal_use_only!$K$2:$K$22</definedName>
+    <definedName name="Experimental_Datasets_enumeration">for_internal_use_only!$K$2:$K$22</definedName>
+    <definedName name="External_file_format_enumeration">for_internal_use_only!$N$2:$N$21</definedName>
+    <definedName name="External_file_formats">for_internal_use_only!$N$2:$N$21</definedName>
+    <definedName name="External_file_formats_enumeration">for_internal_use_only!$N$2:$N$21</definedName>
     <definedName name="external_file_id">External_files!$A$5:$A$1048576</definedName>
     <definedName name="external_reference_id">Dataset!$K$5:$K$1048576</definedName>
     <definedName name="FPS_MPP_group_id">FLR_FPS_MPP_group!$B$5:$B$1048576</definedName>
@@ -84,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="1178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="1180">
   <si>
     <t>Model number</t>
   </si>
@@ -3618,6 +3621,12 @@
   </si>
   <si>
     <t>IHM_Entity_Details</t>
+  </si>
+  <si>
+    <t>Databses</t>
+  </si>
+  <si>
+    <t>Dataset Type</t>
   </si>
 </sst>
 </file>
@@ -4271,104 +4280,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="README"/>
-      <sheetName val="Citation"/>
-      <sheetName val="Entity"/>
-      <sheetName val="Dataset"/>
-      <sheetName val="External_files"/>
-      <sheetName val="Software"/>
-      <sheetName val="Instance"/>
-      <sheetName val="Starting_comparative_model"/>
-      <sheetName val="Modeling_protocol"/>
-      <sheetName val="Modeling_post_process"/>
-      <sheetName val="Multi-state modeling"/>
-      <sheetName val="Models"/>
-      <sheetName val="Ensemble Info"/>
-      <sheetName val="FLR"/>
-      <sheetName val="FLR_FPS_MPP_group"/>
-      <sheetName val="FLR_FPS_global_parameters"/>
-      <sheetName val="FLR_FRET_Model_distances"/>
-      <sheetName val="FLR_FRET_Model_quality"/>
-      <sheetName val="for_internal_use_only"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="README"/>
-      <sheetName val="Citation"/>
-      <sheetName val="Entity"/>
-      <sheetName val="Dataset"/>
-      <sheetName val="External_files"/>
-      <sheetName val="Software"/>
-      <sheetName val="Instance"/>
-      <sheetName val="Starting_comparative_model"/>
-      <sheetName val="Modeling_protocol"/>
-      <sheetName val="Modeling_post_process"/>
-      <sheetName val="Multi-state modeling"/>
-      <sheetName val="Models"/>
-      <sheetName val="Ensemble Info"/>
-      <sheetName val="FLR"/>
-      <sheetName val="FLR_FPS_MPP_group"/>
-      <sheetName val="FLR_FPS_global_parameters"/>
-      <sheetName val="FLR_FRET_Model_distances"/>
-      <sheetName val="FLR_FRET_Model_quality"/>
-      <sheetName val="for_internal_use_only"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4634,23 +4545,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>1</v>
       </c>
@@ -4658,7 +4569,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>2</v>
       </c>
@@ -4666,7 +4577,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>3</v>
       </c>
@@ -4674,7 +4585,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>4</v>
       </c>
@@ -4682,7 +4593,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>5</v>
       </c>
@@ -4690,7 +4601,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>6</v>
       </c>
@@ -4698,7 +4609,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>7</v>
       </c>
@@ -4706,7 +4617,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>8</v>
       </c>
@@ -4727,18 +4638,18 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="17.19921875" customWidth="1"/>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="20" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="20" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -4785,7 +4696,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -4832,7 +4743,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="11" customFormat="1" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="11" customFormat="1" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>387</v>
       </c>
@@ -4879,7 +4790,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="83">
         <v>1</v>
       </c>
@@ -4924,7 +4835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="83">
         <v>2</v>
       </c>
@@ -4969,7 +4880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O8" s="2"/>
     </row>
   </sheetData>
@@ -4999,14 +4910,14 @@
       <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="20" customFormat="1" ht="156" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="20" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -5044,7 +4955,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>528</v>
       </c>
@@ -5082,7 +4993,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>537</v>
       </c>
@@ -5120,7 +5031,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="84">
         <v>1</v>
       </c>
@@ -5187,22 +5098,22 @@
       <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="21.69921875" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="9" max="9" width="13.69921875" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="20" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -5234,7 +5145,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -5266,7 +5177,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="7" customFormat="1" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>412</v>
       </c>
@@ -5298,7 +5209,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="85">
         <v>1</v>
       </c>
@@ -5327,7 +5238,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="85">
         <v>2</v>
       </c>
@@ -5356,7 +5267,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" s="65"/>
     </row>
   </sheetData>
@@ -5380,31 +5291,31 @@
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="111"/>
-    <col min="2" max="2" width="25.8984375" style="74" customWidth="1"/>
+    <col min="2" max="2" width="25.875" style="74" customWidth="1"/>
     <col min="3" max="4" width="9" style="111"/>
-    <col min="5" max="5" width="11.8984375" style="74" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" style="111" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="74" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="111" customWidth="1"/>
     <col min="7" max="7" width="13" style="111" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" style="111" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="111" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="74" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="81" customWidth="1"/>
-    <col min="11" max="11" width="11.59765625" style="111" customWidth="1"/>
-    <col min="12" max="12" width="12.3984375" style="111" customWidth="1"/>
-    <col min="13" max="13" width="12.59765625" style="111" customWidth="1"/>
-    <col min="14" max="14" width="11.59765625" style="111" customWidth="1"/>
-    <col min="15" max="15" width="17.09765625" style="111" customWidth="1"/>
-    <col min="16" max="16" width="13.19921875" style="74" customWidth="1"/>
-    <col min="17" max="17" width="17.09765625" style="111" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="111" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="111" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="111" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="111" customWidth="1"/>
+    <col min="15" max="15" width="17.125" style="111" customWidth="1"/>
+    <col min="16" max="16" width="13.25" style="74" customWidth="1"/>
+    <col min="17" max="17" width="17.125" style="111" customWidth="1"/>
     <col min="18" max="22" width="9" style="111"/>
     <col min="23" max="23" width="9" style="74"/>
     <col min="24" max="24" width="9" style="81"/>
     <col min="25" max="16384" width="9" style="111"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>1081</v>
       </c>
@@ -5416,7 +5327,7 @@
       <c r="W1" s="111"/>
       <c r="X1" s="111"/>
     </row>
-    <row r="2" spans="1:26" s="75" customFormat="1" ht="203.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="75" customFormat="1" ht="174" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
         <v>641</v>
       </c>
@@ -5496,7 +5407,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="111" t="s">
         <v>129</v>
       </c>
@@ -5568,7 +5479,7 @@
       </c>
       <c r="Z3" s="123"/>
     </row>
-    <row r="4" spans="1:26" s="70" customFormat="1" ht="47.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" s="70" customFormat="1" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
         <v>1124</v>
       </c>
@@ -5648,7 +5559,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="111">
         <v>1</v>
       </c>
@@ -5714,7 +5625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="111">
         <v>2</v>
       </c>
@@ -5752,7 +5663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="111">
         <v>3</v>
       </c>
@@ -5781,7 +5692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="45">
         <v>4</v>
       </c>
@@ -5813,7 +5724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="45">
         <v>5</v>
       </c>
@@ -5836,7 +5747,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="45">
         <v>6</v>
       </c>
@@ -5890,14 +5801,14 @@
       <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="20" customFormat="1" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="20" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -5932,7 +5843,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5967,7 +5878,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>401</v>
       </c>
@@ -6002,7 +5913,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="86">
         <v>1</v>
       </c>
@@ -6037,7 +5948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="86">
         <v>2</v>
       </c>
@@ -6072,7 +5983,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="86">
         <v>3</v>
       </c>
@@ -6107,7 +6018,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="86">
         <v>4</v>
       </c>
@@ -6142,7 +6053,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="86">
         <v>5</v>
       </c>
@@ -6177,7 +6088,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="86">
         <v>6</v>
       </c>
@@ -6212,7 +6123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="86">
         <v>7</v>
       </c>
@@ -6247,7 +6158,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="86">
         <v>8</v>
       </c>
@@ -6282,7 +6193,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="86">
         <v>9</v>
       </c>
@@ -6317,7 +6228,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="86">
         <v>10</v>
       </c>
@@ -6352,7 +6263,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
     </row>
   </sheetData>
@@ -6391,23 +6302,23 @@
       <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" customWidth="1"/>
-    <col min="4" max="4" width="14.09765625" customWidth="1"/>
-    <col min="5" max="5" width="20.3984375" customWidth="1"/>
-    <col min="7" max="7" width="20.19921875" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="20.25" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="20" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -6439,7 +6350,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="109.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>580</v>
       </c>
@@ -6471,7 +6382,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>582</v>
       </c>
@@ -6503,7 +6414,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="88">
         <v>1</v>
       </c>
@@ -6531,7 +6442,7 @@
       <c r="I5" s="88"/>
       <c r="J5" s="88"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="88">
         <v>2</v>
       </c>
@@ -6589,11 +6500,11 @@
       <selection activeCell="BC4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" style="12" customWidth="1"/>
-    <col min="4" max="5" width="23.19921875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="12" customWidth="1"/>
+    <col min="4" max="5" width="23.25" style="12" customWidth="1"/>
     <col min="6" max="6" width="11" style="18" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="11" style="18" customWidth="1"/>
@@ -6622,7 +6533,7 @@
     <col min="72" max="72" width="11" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="113" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:74" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="113" t="s">
         <v>895</v>
       </c>
@@ -6640,7 +6551,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="2" spans="1:74" s="16" customFormat="1" ht="16.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:74" s="16" customFormat="1" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>820</v>
       </c>
@@ -6679,7 +6590,7 @@
       </c>
       <c r="BT2" s="17"/>
     </row>
-    <row r="3" spans="1:74" s="33" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:74" s="33" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>641</v>
       </c>
@@ -6903,7 +6814,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="4" spans="1:74" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:74" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>829</v>
       </c>
@@ -7127,7 +7038,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="5" spans="1:74" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:74" ht="63" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7265,7 +7176,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="6" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="56"/>
       <c r="C6" s="71"/>
       <c r="D6" s="71"/>
@@ -7334,7 +7245,7 @@
       <c r="BT6" s="74"/>
       <c r="BU6" s="78"/>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
       <c r="B7" s="56"/>
       <c r="E7" s="71"/>
       <c r="G7" s="65"/>
@@ -7397,7 +7308,7 @@
       <c r="BS7" s="5"/>
       <c r="BU7" s="43"/>
     </row>
-    <row r="8" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="56"/>
       <c r="C8" s="71"/>
       <c r="D8" s="71"/>
@@ -7466,7 +7377,7 @@
       <c r="BT8" s="74"/>
       <c r="BU8" s="78"/>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A9" s="65"/>
       <c r="B9" s="56"/>
       <c r="E9" s="71"/>
@@ -7532,7 +7443,7 @@
       <c r="BS9" s="5"/>
       <c r="BU9" s="43"/>
     </row>
-    <row r="10" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="56"/>
       <c r="C10" s="71"/>
       <c r="D10" s="71"/>
@@ -7604,7 +7515,7 @@
       <c r="BT10" s="74"/>
       <c r="BU10" s="78"/>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A11" s="65"/>
       <c r="B11" s="56"/>
       <c r="E11" s="71"/>
@@ -7633,7 +7544,7 @@
       <c r="BP11" s="5"/>
       <c r="BU11" s="43"/>
     </row>
-    <row r="12" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="56"/>
       <c r="C12" s="71"/>
       <c r="D12" s="71"/>
@@ -7674,7 +7585,7 @@
       <c r="BT12" s="74"/>
       <c r="BU12" s="78"/>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A13" s="65"/>
       <c r="B13" s="56"/>
       <c r="E13" s="71"/>
@@ -7703,7 +7614,7 @@
       <c r="BP13" s="5"/>
       <c r="BU13" s="43"/>
     </row>
-    <row r="14" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="56"/>
       <c r="C14" s="71"/>
       <c r="D14" s="71"/>
@@ -7744,7 +7655,7 @@
       <c r="BT14" s="74"/>
       <c r="BU14" s="78"/>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A15" s="65"/>
       <c r="B15" s="56"/>
       <c r="E15" s="71"/>
@@ -7773,7 +7684,7 @@
       <c r="BP15" s="5"/>
       <c r="BU15" s="43"/>
     </row>
-    <row r="16" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:74" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="56"/>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
@@ -7814,7 +7725,7 @@
       <c r="BT16" s="74"/>
       <c r="BU16" s="78"/>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A17" s="65"/>
       <c r="B17" s="56"/>
       <c r="E17" s="71"/>
@@ -7843,7 +7754,7 @@
       <c r="BP17" s="5"/>
       <c r="BU17" s="43"/>
     </row>
-    <row r="18" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="56"/>
       <c r="C18" s="71"/>
       <c r="D18" s="71"/>
@@ -7884,7 +7795,7 @@
       <c r="BT18" s="74"/>
       <c r="BU18" s="78"/>
     </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A19" s="65"/>
       <c r="B19" s="56"/>
       <c r="E19" s="71"/>
@@ -7913,7 +7824,7 @@
       <c r="BP19" s="5"/>
       <c r="BU19" s="43"/>
     </row>
-    <row r="20" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="56"/>
       <c r="C20" s="71"/>
       <c r="D20" s="71"/>
@@ -7954,7 +7865,7 @@
       <c r="BT20" s="74"/>
       <c r="BU20" s="78"/>
     </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A21" s="65"/>
       <c r="B21" s="56"/>
       <c r="E21" s="71"/>
@@ -7983,7 +7894,7 @@
       <c r="BP21" s="5"/>
       <c r="BU21" s="43"/>
     </row>
-    <row r="22" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="56"/>
       <c r="C22" s="71"/>
       <c r="D22" s="71"/>
@@ -8024,7 +7935,7 @@
       <c r="BT22" s="74"/>
       <c r="BU22" s="78"/>
     </row>
-    <row r="23" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A23" s="65"/>
       <c r="B23" s="56"/>
       <c r="C23"/>
@@ -8054,7 +7965,7 @@
       <c r="BP23" s="5"/>
       <c r="BU23" s="43"/>
     </row>
-    <row r="24" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="56"/>
       <c r="D24" s="71"/>
       <c r="E24" s="71"/>
@@ -8094,7 +8005,7 @@
       <c r="BT24" s="74"/>
       <c r="BU24" s="78"/>
     </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A25" s="65"/>
       <c r="B25" s="56"/>
       <c r="C25"/>
@@ -8124,7 +8035,7 @@
       <c r="BP25" s="5"/>
       <c r="BU25" s="43"/>
     </row>
-    <row r="26" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="56"/>
       <c r="D26" s="71"/>
       <c r="E26" s="71"/>
@@ -8164,7 +8075,7 @@
       <c r="BT26" s="74"/>
       <c r="BU26" s="78"/>
     </row>
-    <row r="27" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A27" s="65"/>
       <c r="B27" s="56"/>
       <c r="C27"/>
@@ -8194,7 +8105,7 @@
       <c r="BP27" s="5"/>
       <c r="BU27" s="43"/>
     </row>
-    <row r="28" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="56"/>
       <c r="D28" s="71"/>
       <c r="E28" s="71"/>
@@ -8234,7 +8145,7 @@
       <c r="BT28" s="74"/>
       <c r="BU28" s="78"/>
     </row>
-    <row r="29" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A29" s="65"/>
       <c r="B29" s="56"/>
       <c r="C29"/>
@@ -8264,7 +8175,7 @@
       <c r="BP29" s="5"/>
       <c r="BU29" s="43"/>
     </row>
-    <row r="30" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="56"/>
       <c r="D30" s="71"/>
       <c r="E30" s="71"/>
@@ -8304,7 +8215,7 @@
       <c r="BT30" s="74"/>
       <c r="BU30" s="78"/>
     </row>
-    <row r="31" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A31" s="65"/>
       <c r="B31" s="56"/>
       <c r="C31"/>
@@ -8334,7 +8245,7 @@
       <c r="BP31" s="5"/>
       <c r="BU31" s="43"/>
     </row>
-    <row r="32" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="56"/>
       <c r="D32" s="71"/>
       <c r="E32" s="71"/>
@@ -8374,7 +8285,7 @@
       <c r="BT32" s="74"/>
       <c r="BU32" s="78"/>
     </row>
-    <row r="33" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A33" s="65"/>
       <c r="B33" s="56"/>
       <c r="C33"/>
@@ -8404,7 +8315,7 @@
       <c r="BP33" s="5"/>
       <c r="BU33" s="43"/>
     </row>
-    <row r="34" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="56"/>
       <c r="D34" s="71"/>
       <c r="E34" s="71"/>
@@ -8444,7 +8355,7 @@
       <c r="BT34" s="74"/>
       <c r="BU34" s="78"/>
     </row>
-    <row r="35" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A35" s="65"/>
       <c r="B35" s="56"/>
       <c r="C35"/>
@@ -8474,7 +8385,7 @@
       <c r="BP35" s="5"/>
       <c r="BU35" s="43"/>
     </row>
-    <row r="36" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="56"/>
       <c r="D36" s="71"/>
       <c r="E36" s="71"/>
@@ -8514,7 +8425,7 @@
       <c r="BT36" s="74"/>
       <c r="BU36" s="78"/>
     </row>
-    <row r="37" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A37" s="65"/>
       <c r="B37" s="56"/>
       <c r="C37"/>
@@ -8544,7 +8455,7 @@
       <c r="BP37" s="5"/>
       <c r="BU37" s="43"/>
     </row>
-    <row r="38" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="56"/>
       <c r="D38" s="71"/>
       <c r="E38" s="71"/>
@@ -8584,7 +8495,7 @@
       <c r="BT38" s="74"/>
       <c r="BU38" s="78"/>
     </row>
-    <row r="39" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A39" s="65"/>
       <c r="B39" s="56"/>
       <c r="C39"/>
@@ -8614,7 +8525,7 @@
       <c r="BP39" s="5"/>
       <c r="BU39" s="43"/>
     </row>
-    <row r="40" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="56"/>
       <c r="D40" s="71"/>
       <c r="E40" s="71"/>
@@ -8654,7 +8565,7 @@
       <c r="BT40" s="74"/>
       <c r="BU40" s="78"/>
     </row>
-    <row r="41" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A41" s="65"/>
       <c r="B41" s="56"/>
       <c r="C41"/>
@@ -8684,7 +8595,7 @@
       <c r="BP41" s="5"/>
       <c r="BU41" s="43"/>
     </row>
-    <row r="42" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="56"/>
       <c r="D42" s="71"/>
       <c r="E42" s="71"/>
@@ -8724,7 +8635,7 @@
       <c r="BT42" s="74"/>
       <c r="BU42" s="78"/>
     </row>
-    <row r="43" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A43" s="65"/>
       <c r="B43" s="56"/>
       <c r="C43"/>
@@ -8754,7 +8665,7 @@
       <c r="BP43" s="5"/>
       <c r="BU43" s="43"/>
     </row>
-    <row r="44" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="56"/>
       <c r="D44" s="71"/>
       <c r="E44" s="71"/>
@@ -8794,7 +8705,7 @@
       <c r="BT44" s="74"/>
       <c r="BU44" s="78"/>
     </row>
-    <row r="45" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A45" s="65"/>
       <c r="B45" s="56"/>
       <c r="C45"/>
@@ -8824,7 +8735,7 @@
       <c r="BP45" s="5"/>
       <c r="BU45" s="43"/>
     </row>
-    <row r="46" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="56"/>
       <c r="D46" s="71"/>
       <c r="E46" s="71"/>
@@ -8864,7 +8775,7 @@
       <c r="BT46" s="74"/>
       <c r="BU46" s="78"/>
     </row>
-    <row r="47" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A47" s="65"/>
       <c r="B47" s="56"/>
       <c r="C47"/>
@@ -8894,7 +8805,7 @@
       <c r="BP47" s="5"/>
       <c r="BU47" s="43"/>
     </row>
-    <row r="48" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="56"/>
       <c r="D48" s="71"/>
       <c r="E48" s="71"/>
@@ -8934,7 +8845,7 @@
       <c r="BT48" s="74"/>
       <c r="BU48" s="78"/>
     </row>
-    <row r="49" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A49" s="65"/>
       <c r="B49" s="56"/>
       <c r="C49"/>
@@ -8964,7 +8875,7 @@
       <c r="BP49" s="5"/>
       <c r="BU49" s="43"/>
     </row>
-    <row r="50" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="56"/>
       <c r="D50" s="71"/>
       <c r="E50" s="71"/>
@@ -9004,7 +8915,7 @@
       <c r="BT50" s="74"/>
       <c r="BU50" s="78"/>
     </row>
-    <row r="51" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A51" s="65"/>
       <c r="B51" s="56"/>
       <c r="C51"/>
@@ -9034,7 +8945,7 @@
       <c r="BP51" s="5"/>
       <c r="BU51" s="43"/>
     </row>
-    <row r="52" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="56"/>
       <c r="D52" s="71"/>
       <c r="E52" s="71"/>
@@ -9074,7 +8985,7 @@
       <c r="BT52" s="74"/>
       <c r="BU52" s="78"/>
     </row>
-    <row r="53" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A53" s="65"/>
       <c r="B53" s="56"/>
       <c r="C53"/>
@@ -9104,7 +9015,7 @@
       <c r="BP53" s="5"/>
       <c r="BU53" s="43"/>
     </row>
-    <row r="54" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="56"/>
       <c r="D54" s="71"/>
       <c r="E54" s="71"/>
@@ -9144,7 +9055,7 @@
       <c r="BT54" s="74"/>
       <c r="BU54" s="78"/>
     </row>
-    <row r="55" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A55" s="65"/>
       <c r="B55" s="56"/>
       <c r="C55"/>
@@ -9174,7 +9085,7 @@
       <c r="BP55" s="5"/>
       <c r="BU55" s="43"/>
     </row>
-    <row r="56" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="56"/>
       <c r="D56" s="71"/>
       <c r="E56" s="71"/>
@@ -9214,7 +9125,7 @@
       <c r="BT56" s="74"/>
       <c r="BU56" s="78"/>
     </row>
-    <row r="57" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A57" s="65"/>
       <c r="B57" s="56"/>
       <c r="C57"/>
@@ -9244,7 +9155,7 @@
       <c r="BP57" s="5"/>
       <c r="BU57" s="43"/>
     </row>
-    <row r="58" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="56"/>
       <c r="D58" s="71"/>
       <c r="E58" s="71"/>
@@ -9284,7 +9195,7 @@
       <c r="BT58" s="74"/>
       <c r="BU58" s="78"/>
     </row>
-    <row r="59" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A59" s="65"/>
       <c r="B59" s="56"/>
       <c r="C59"/>
@@ -9314,7 +9225,7 @@
       <c r="BP59" s="5"/>
       <c r="BU59" s="43"/>
     </row>
-    <row r="60" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="56"/>
       <c r="D60" s="71"/>
       <c r="E60" s="71"/>
@@ -9354,7 +9265,7 @@
       <c r="BT60" s="74"/>
       <c r="BU60" s="78"/>
     </row>
-    <row r="61" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A61" s="65"/>
       <c r="B61" s="56"/>
       <c r="C61"/>
@@ -9384,7 +9295,7 @@
       <c r="BP61" s="5"/>
       <c r="BU61" s="43"/>
     </row>
-    <row r="62" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="56"/>
       <c r="D62" s="71"/>
       <c r="E62" s="71"/>
@@ -9424,7 +9335,7 @@
       <c r="BT62" s="74"/>
       <c r="BU62" s="78"/>
     </row>
-    <row r="63" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A63" s="65"/>
       <c r="B63" s="56"/>
       <c r="C63"/>
@@ -9454,7 +9365,7 @@
       <c r="BP63" s="5"/>
       <c r="BU63" s="43"/>
     </row>
-    <row r="64" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="56"/>
       <c r="D64" s="71"/>
       <c r="E64" s="71"/>
@@ -9494,7 +9405,7 @@
       <c r="BT64" s="74"/>
       <c r="BU64" s="78"/>
     </row>
-    <row r="65" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A65" s="65"/>
       <c r="B65" s="56"/>
       <c r="C65"/>
@@ -9524,7 +9435,7 @@
       <c r="BP65" s="5"/>
       <c r="BU65" s="43"/>
     </row>
-    <row r="66" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="56"/>
       <c r="D66" s="71"/>
       <c r="E66" s="71"/>
@@ -9564,7 +9475,7 @@
       <c r="BT66" s="74"/>
       <c r="BU66" s="78"/>
     </row>
-    <row r="67" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A67" s="65"/>
       <c r="B67" s="56"/>
       <c r="C67"/>
@@ -9594,7 +9505,7 @@
       <c r="BP67" s="5"/>
       <c r="BU67" s="43"/>
     </row>
-    <row r="68" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="56"/>
       <c r="D68" s="71"/>
       <c r="E68" s="71"/>
@@ -9634,7 +9545,7 @@
       <c r="BT68" s="74"/>
       <c r="BU68" s="78"/>
     </row>
-    <row r="69" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A69" s="65"/>
       <c r="B69" s="56"/>
       <c r="C69"/>
@@ -9664,7 +9575,7 @@
       <c r="BP69" s="5"/>
       <c r="BU69" s="43"/>
     </row>
-    <row r="70" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:73" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="56"/>
       <c r="D70" s="71"/>
       <c r="E70" s="71"/>
@@ -9704,42 +9615,42 @@
       <c r="BT70" s="74"/>
       <c r="BU70" s="78"/>
     </row>
-    <row r="71" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y71" s="69"/>
       <c r="BK71" s="63"/>
     </row>
-    <row r="72" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y72" s="69"/>
       <c r="BK72" s="64"/>
     </row>
-    <row r="73" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y73" s="69"/>
     </row>
-    <row r="74" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y74" s="69"/>
     </row>
-    <row r="75" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y75" s="69"/>
     </row>
-    <row r="76" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y76" s="69"/>
     </row>
-    <row r="77" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y77" s="69"/>
     </row>
-    <row r="78" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y78" s="69"/>
     </row>
-    <row r="79" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y79" s="69"/>
     </row>
-    <row r="80" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:73" x14ac:dyDescent="0.25">
       <c r="Y80" s="69"/>
     </row>
-    <row r="81" spans="25:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y81" s="69"/>
     </row>
-    <row r="82" spans="25:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y82" s="69"/>
     </row>
   </sheetData>
@@ -9787,14 +9698,14 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" customWidth="1"/>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="11" style="18"/>
     <col min="3" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="11" style="18" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="13.8984375" style="57" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="57" customWidth="1"/>
     <col min="8" max="10" width="11" customWidth="1"/>
     <col min="11" max="12" width="11" style="32" customWidth="1"/>
     <col min="13" max="13" width="11" style="18" customWidth="1"/>
@@ -9805,7 +9716,7 @@
     <col min="26" max="32" width="11" customWidth="1"/>
     <col min="33" max="33" width="11" style="18" customWidth="1"/>
     <col min="34" max="36" width="11" customWidth="1"/>
-    <col min="37" max="37" width="12.59765625" style="74" customWidth="1"/>
+    <col min="37" max="37" width="12.625" style="74" customWidth="1"/>
     <col min="38" max="40" width="11" style="111" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="11" style="111" customWidth="1"/>
     <col min="42" max="44" width="11" style="111" hidden="1" customWidth="1"/>
@@ -9840,7 +9751,7 @@
     <col min="128" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:127" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:127" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>791</v>
       </c>
@@ -9879,7 +9790,7 @@
       <c r="DO1" s="24"/>
       <c r="DW1" s="24"/>
     </row>
-    <row r="2" spans="1:127" s="7" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:127" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>775</v>
       </c>
@@ -10045,7 +9956,7 @@
       </c>
       <c r="DW2" s="19"/>
     </row>
-    <row r="3" spans="1:127" s="21" customFormat="1" ht="202.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:127" s="21" customFormat="1" ht="189" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>641</v>
       </c>
@@ -10419,7 +10330,7 @@
       </c>
       <c r="DW3" s="24"/>
     </row>
-    <row r="4" spans="1:127" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:127" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>245</v>
       </c>
@@ -10795,7 +10706,7 @@
       </c>
       <c r="DW4" s="19"/>
     </row>
-    <row r="5" spans="1:127" ht="124.8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:127" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A5" s="90">
         <v>1</v>
       </c>
@@ -11092,7 +11003,7 @@
       <c r="DV5" s="105"/>
       <c r="DW5" s="105"/>
     </row>
-    <row r="6" spans="1:127" ht="124.8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:127" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A6" s="92">
         <v>2</v>
       </c>
@@ -11393,7 +11304,7 @@
       <c r="DV6" s="105"/>
       <c r="DW6" s="105"/>
     </row>
-    <row r="7" spans="1:127" ht="124.8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:127" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -11685,7 +11596,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:127" s="112" customFormat="1" ht="124.8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:127" s="112" customFormat="1" ht="110.25" x14ac:dyDescent="0.3">
       <c r="A8" s="107">
         <v>4</v>
       </c>
@@ -11981,7 +11892,7 @@
       <c r="DO8" s="44"/>
       <c r="DW8" s="44"/>
     </row>
-    <row r="9" spans="1:127" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:127" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -12098,7 +12009,7 @@
       <c r="DM9" s="5"/>
       <c r="DN9" s="5"/>
     </row>
-    <row r="10" spans="1:127" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:127" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -12215,7 +12126,7 @@
       <c r="DM10" s="5"/>
       <c r="DN10" s="5"/>
     </row>
-    <row r="11" spans="1:127" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:127" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -12332,7 +12243,7 @@
       <c r="DM11" s="5"/>
       <c r="DN11" s="5"/>
     </row>
-    <row r="12" spans="1:127" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:127" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -12449,7 +12360,7 @@
       <c r="DM12" s="5"/>
       <c r="DN12" s="5"/>
     </row>
-    <row r="13" spans="1:127" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:127" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -12566,7 +12477,7 @@
       <c r="DM13" s="5"/>
       <c r="DN13" s="5"/>
     </row>
-    <row r="14" spans="1:127" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:127" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -12683,7 +12594,7 @@
       <c r="DM14" s="5"/>
       <c r="DN14" s="5"/>
     </row>
-    <row r="15" spans="1:127" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:127" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -12800,7 +12711,7 @@
       <c r="DM15" s="5"/>
       <c r="DN15" s="5"/>
     </row>
-    <row r="16" spans="1:127" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:127" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -12917,7 +12828,7 @@
       <c r="DM16" s="5"/>
       <c r="DN16" s="5"/>
     </row>
-    <row r="17" spans="1:118" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:118" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -13034,7 +12945,7 @@
       <c r="DM17" s="5"/>
       <c r="DN17" s="5"/>
     </row>
-    <row r="18" spans="1:118" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:118" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -13151,7 +13062,7 @@
       <c r="DM18" s="5"/>
       <c r="DN18" s="5"/>
     </row>
-    <row r="19" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -13268,7 +13179,7 @@
       <c r="DM19" s="5"/>
       <c r="DN19" s="5"/>
     </row>
-    <row r="20" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -13385,7 +13296,7 @@
       <c r="DM20" s="5"/>
       <c r="DN20" s="5"/>
     </row>
-    <row r="21" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -13502,7 +13413,7 @@
       <c r="DM21" s="5"/>
       <c r="DN21" s="5"/>
     </row>
-    <row r="22" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
@@ -13619,7 +13530,7 @@
       <c r="DM22" s="5"/>
       <c r="DN22" s="5"/>
     </row>
-    <row r="23" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -13736,7 +13647,7 @@
       <c r="DM23" s="5"/>
       <c r="DN23" s="5"/>
     </row>
-    <row r="24" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
@@ -13853,7 +13764,7 @@
       <c r="DM24" s="5"/>
       <c r="DN24" s="5"/>
     </row>
-    <row r="25" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
@@ -13970,7 +13881,7 @@
       <c r="DM25" s="5"/>
       <c r="DN25" s="5"/>
     </row>
-    <row r="26" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
@@ -14087,7 +13998,7 @@
       <c r="DM26" s="5"/>
       <c r="DN26" s="5"/>
     </row>
-    <row r="27" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
@@ -14204,7 +14115,7 @@
       <c r="DM27" s="5"/>
       <c r="DN27" s="5"/>
     </row>
-    <row r="28" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
@@ -14321,7 +14232,7 @@
       <c r="DM28" s="5"/>
       <c r="DN28" s="5"/>
     </row>
-    <row r="29" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
@@ -14438,7 +14349,7 @@
       <c r="DM29" s="5"/>
       <c r="DN29" s="5"/>
     </row>
-    <row r="30" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
@@ -14555,7 +14466,7 @@
       <c r="DM30" s="5"/>
       <c r="DN30" s="5"/>
     </row>
-    <row r="31" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
@@ -14672,7 +14583,7 @@
       <c r="DM31" s="5"/>
       <c r="DN31" s="5"/>
     </row>
-    <row r="32" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
@@ -14789,7 +14700,7 @@
       <c r="DM32" s="5"/>
       <c r="DN32" s="5"/>
     </row>
-    <row r="33" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
@@ -14906,7 +14817,7 @@
       <c r="DM33" s="5"/>
       <c r="DN33" s="5"/>
     </row>
-    <row r="34" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
@@ -15023,7 +14934,7 @@
       <c r="DM34" s="5"/>
       <c r="DN34" s="5"/>
     </row>
-    <row r="35" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
@@ -15140,7 +15051,7 @@
       <c r="DM35" s="5"/>
       <c r="DN35" s="5"/>
     </row>
-    <row r="36" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
@@ -15257,7 +15168,7 @@
       <c r="DM36" s="5"/>
       <c r="DN36" s="5"/>
     </row>
-    <row r="37" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
@@ -15374,7 +15285,7 @@
       <c r="DM37" s="5"/>
       <c r="DN37" s="5"/>
     </row>
-    <row r="38" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
@@ -15491,7 +15402,7 @@
       <c r="DM38" s="5"/>
       <c r="DN38" s="5"/>
     </row>
-    <row r="39" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
@@ -15608,7 +15519,7 @@
       <c r="DM39" s="5"/>
       <c r="DN39" s="5"/>
     </row>
-    <row r="40" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
@@ -15725,7 +15636,7 @@
       <c r="DM40" s="5"/>
       <c r="DN40" s="5"/>
     </row>
-    <row r="41" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
@@ -15842,7 +15753,7 @@
       <c r="DM41" s="5"/>
       <c r="DN41" s="5"/>
     </row>
-    <row r="42" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
@@ -15959,7 +15870,7 @@
       <c r="DM42" s="5"/>
       <c r="DN42" s="5"/>
     </row>
-    <row r="43" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
@@ -16076,7 +15987,7 @@
       <c r="DM43" s="5"/>
       <c r="DN43" s="5"/>
     </row>
-    <row r="44" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
@@ -16193,7 +16104,7 @@
       <c r="DM44" s="5"/>
       <c r="DN44" s="5"/>
     </row>
-    <row r="45" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -16310,7 +16221,7 @@
       <c r="DM45" s="5"/>
       <c r="DN45" s="5"/>
     </row>
-    <row r="46" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
@@ -16427,7 +16338,7 @@
       <c r="DM46" s="5"/>
       <c r="DN46" s="5"/>
     </row>
-    <row r="47" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
@@ -16544,7 +16455,7 @@
       <c r="DM47" s="5"/>
       <c r="DN47" s="5"/>
     </row>
-    <row r="48" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
@@ -16661,7 +16572,7 @@
       <c r="DM48" s="5"/>
       <c r="DN48" s="5"/>
     </row>
-    <row r="49" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
@@ -16778,7 +16689,7 @@
       <c r="DM49" s="5"/>
       <c r="DN49" s="5"/>
     </row>
-    <row r="50" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
@@ -16895,7 +16806,7 @@
       <c r="DM50" s="5"/>
       <c r="DN50" s="5"/>
     </row>
-    <row r="51" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
@@ -17012,7 +16923,7 @@
       <c r="DM51" s="5"/>
       <c r="DN51" s="5"/>
     </row>
-    <row r="52" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
@@ -17129,7 +17040,7 @@
       <c r="DM52" s="5"/>
       <c r="DN52" s="5"/>
     </row>
-    <row r="53" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
@@ -17246,7 +17157,7 @@
       <c r="DM53" s="5"/>
       <c r="DN53" s="5"/>
     </row>
-    <row r="54" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
@@ -17363,7 +17274,7 @@
       <c r="DM54" s="5"/>
       <c r="DN54" s="5"/>
     </row>
-    <row r="55" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
@@ -17480,7 +17391,7 @@
       <c r="DM55" s="5"/>
       <c r="DN55" s="5"/>
     </row>
-    <row r="56" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
@@ -17597,7 +17508,7 @@
       <c r="DM56" s="5"/>
       <c r="DN56" s="5"/>
     </row>
-    <row r="57" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
@@ -17714,7 +17625,7 @@
       <c r="DM57" s="5"/>
       <c r="DN57" s="5"/>
     </row>
-    <row r="58" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
@@ -17831,7 +17742,7 @@
       <c r="DM58" s="5"/>
       <c r="DN58" s="5"/>
     </row>
-    <row r="59" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
@@ -17948,7 +17859,7 @@
       <c r="DM59" s="5"/>
       <c r="DN59" s="5"/>
     </row>
-    <row r="60" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="4"/>
       <c r="C60" s="5"/>
@@ -18065,7 +17976,7 @@
       <c r="DM60" s="5"/>
       <c r="DN60" s="5"/>
     </row>
-    <row r="61" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="4"/>
       <c r="C61" s="5"/>
@@ -18182,7 +18093,7 @@
       <c r="DM61" s="5"/>
       <c r="DN61" s="5"/>
     </row>
-    <row r="62" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="4"/>
       <c r="C62" s="5"/>
@@ -18299,7 +18210,7 @@
       <c r="DM62" s="5"/>
       <c r="DN62" s="5"/>
     </row>
-    <row r="63" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="4"/>
       <c r="C63" s="5"/>
@@ -18416,7 +18327,7 @@
       <c r="DM63" s="5"/>
       <c r="DN63" s="5"/>
     </row>
-    <row r="64" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="4"/>
       <c r="C64" s="5"/>
@@ -18533,7 +18444,7 @@
       <c r="DM64" s="5"/>
       <c r="DN64" s="5"/>
     </row>
-    <row r="65" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="4"/>
       <c r="C65" s="5"/>
@@ -18650,7 +18561,7 @@
       <c r="DM65" s="5"/>
       <c r="DN65" s="5"/>
     </row>
-    <row r="66" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="4"/>
       <c r="C66" s="5"/>
@@ -18767,7 +18678,7 @@
       <c r="DM66" s="5"/>
       <c r="DN66" s="5"/>
     </row>
-    <row r="67" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
@@ -18884,7 +18795,7 @@
       <c r="DM67" s="5"/>
       <c r="DN67" s="5"/>
     </row>
-    <row r="68" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
@@ -19001,7 +18912,7 @@
       <c r="DM68" s="5"/>
       <c r="DN68" s="5"/>
     </row>
-    <row r="69" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
@@ -19118,7 +19029,7 @@
       <c r="DM69" s="5"/>
       <c r="DN69" s="5"/>
     </row>
-    <row r="70" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="4"/>
       <c r="C70" s="5"/>
@@ -19235,7 +19146,7 @@
       <c r="DM70" s="5"/>
       <c r="DN70" s="5"/>
     </row>
-    <row r="71" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="4"/>
       <c r="C71" s="5"/>
@@ -19352,7 +19263,7 @@
       <c r="DM71" s="5"/>
       <c r="DN71" s="5"/>
     </row>
-    <row r="72" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="4"/>
       <c r="C72" s="5"/>
@@ -19469,7 +19380,7 @@
       <c r="DM72" s="5"/>
       <c r="DN72" s="5"/>
     </row>
-    <row r="73" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="4"/>
       <c r="C73" s="5"/>
@@ -19586,7 +19497,7 @@
       <c r="DM73" s="5"/>
       <c r="DN73" s="5"/>
     </row>
-    <row r="74" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
@@ -19703,7 +19614,7 @@
       <c r="DM74" s="5"/>
       <c r="DN74" s="5"/>
     </row>
-    <row r="75" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="4"/>
       <c r="C75" s="5"/>
@@ -19820,7 +19731,7 @@
       <c r="DM75" s="5"/>
       <c r="DN75" s="5"/>
     </row>
-    <row r="76" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="4"/>
       <c r="C76" s="5"/>
@@ -19937,7 +19848,7 @@
       <c r="DM76" s="5"/>
       <c r="DN76" s="5"/>
     </row>
-    <row r="77" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="4"/>
       <c r="C77" s="5"/>
@@ -20054,7 +19965,7 @@
       <c r="DM77" s="5"/>
       <c r="DN77" s="5"/>
     </row>
-    <row r="78" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="4"/>
       <c r="C78" s="5"/>
@@ -20171,7 +20082,7 @@
       <c r="DM78" s="5"/>
       <c r="DN78" s="5"/>
     </row>
-    <row r="79" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="4"/>
       <c r="C79" s="5"/>
@@ -20288,7 +20199,7 @@
       <c r="DM79" s="5"/>
       <c r="DN79" s="5"/>
     </row>
-    <row r="80" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="4"/>
       <c r="C80" s="5"/>
@@ -20405,7 +20316,7 @@
       <c r="DM80" s="5"/>
       <c r="DN80" s="5"/>
     </row>
-    <row r="81" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="4"/>
       <c r="C81" s="5"/>
@@ -20522,7 +20433,7 @@
       <c r="DM81" s="5"/>
       <c r="DN81" s="5"/>
     </row>
-    <row r="82" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="4"/>
       <c r="C82" s="5"/>
@@ -20639,7 +20550,7 @@
       <c r="DM82" s="5"/>
       <c r="DN82" s="5"/>
     </row>
-    <row r="83" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="4"/>
       <c r="C83" s="5"/>
@@ -20756,7 +20667,7 @@
       <c r="DM83" s="5"/>
       <c r="DN83" s="5"/>
     </row>
-    <row r="84" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="4"/>
       <c r="C84" s="5"/>
@@ -20873,7 +20784,7 @@
       <c r="DM84" s="5"/>
       <c r="DN84" s="5"/>
     </row>
-    <row r="85" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="4"/>
       <c r="C85" s="5"/>
@@ -20990,7 +20901,7 @@
       <c r="DM85" s="5"/>
       <c r="DN85" s="5"/>
     </row>
-    <row r="86" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="4"/>
       <c r="C86" s="5"/>
@@ -21107,7 +21018,7 @@
       <c r="DM86" s="5"/>
       <c r="DN86" s="5"/>
     </row>
-    <row r="87" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="4"/>
       <c r="C87" s="5"/>
@@ -21224,7 +21135,7 @@
       <c r="DM87" s="5"/>
       <c r="DN87" s="5"/>
     </row>
-    <row r="88" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="4"/>
       <c r="C88" s="5"/>
@@ -21341,7 +21252,7 @@
       <c r="DM88" s="5"/>
       <c r="DN88" s="5"/>
     </row>
-    <row r="89" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="4"/>
       <c r="C89" s="5"/>
@@ -21458,7 +21369,7 @@
       <c r="DM89" s="5"/>
       <c r="DN89" s="5"/>
     </row>
-    <row r="90" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="4"/>
       <c r="C90" s="5"/>
@@ -21575,7 +21486,7 @@
       <c r="DM90" s="5"/>
       <c r="DN90" s="5"/>
     </row>
-    <row r="91" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="4"/>
       <c r="C91" s="5"/>
@@ -21692,7 +21603,7 @@
       <c r="DM91" s="5"/>
       <c r="DN91" s="5"/>
     </row>
-    <row r="92" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="4"/>
       <c r="C92" s="5"/>
@@ -21809,7 +21720,7 @@
       <c r="DM92" s="5"/>
       <c r="DN92" s="5"/>
     </row>
-    <row r="93" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="4"/>
       <c r="C93" s="5"/>
@@ -21926,7 +21837,7 @@
       <c r="DM93" s="5"/>
       <c r="DN93" s="5"/>
     </row>
-    <row r="94" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="4"/>
       <c r="C94" s="5"/>
@@ -22043,7 +21954,7 @@
       <c r="DM94" s="5"/>
       <c r="DN94" s="5"/>
     </row>
-    <row r="95" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="4"/>
       <c r="C95" s="5"/>
@@ -22160,7 +22071,7 @@
       <c r="DM95" s="5"/>
       <c r="DN95" s="5"/>
     </row>
-    <row r="96" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="4"/>
       <c r="C96" s="5"/>
@@ -22277,7 +22188,7 @@
       <c r="DM96" s="5"/>
       <c r="DN96" s="5"/>
     </row>
-    <row r="97" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="4"/>
       <c r="C97" s="5"/>
@@ -22394,7 +22305,7 @@
       <c r="DM97" s="5"/>
       <c r="DN97" s="5"/>
     </row>
-    <row r="98" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="4"/>
       <c r="C98" s="5"/>
@@ -22511,7 +22422,7 @@
       <c r="DM98" s="5"/>
       <c r="DN98" s="5"/>
     </row>
-    <row r="99" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="4"/>
       <c r="C99" s="5"/>
@@ -22628,7 +22539,7 @@
       <c r="DM99" s="5"/>
       <c r="DN99" s="5"/>
     </row>
-    <row r="100" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="4"/>
       <c r="C100" s="5"/>
@@ -22745,7 +22656,7 @@
       <c r="DM100" s="5"/>
       <c r="DN100" s="5"/>
     </row>
-    <row r="101" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="4"/>
       <c r="C101" s="5"/>
@@ -22862,7 +22773,7 @@
       <c r="DM101" s="5"/>
       <c r="DN101" s="5"/>
     </row>
-    <row r="102" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="4"/>
       <c r="C102" s="5"/>
@@ -22979,7 +22890,7 @@
       <c r="DM102" s="5"/>
       <c r="DN102" s="5"/>
     </row>
-    <row r="103" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="4"/>
       <c r="C103" s="5"/>
@@ -23096,7 +23007,7 @@
       <c r="DM103" s="5"/>
       <c r="DN103" s="5"/>
     </row>
-    <row r="104" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="4"/>
       <c r="C104" s="5"/>
@@ -23213,7 +23124,7 @@
       <c r="DM104" s="5"/>
       <c r="DN104" s="5"/>
     </row>
-    <row r="105" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="4"/>
       <c r="C105" s="5"/>
@@ -23330,7 +23241,7 @@
       <c r="DM105" s="5"/>
       <c r="DN105" s="5"/>
     </row>
-    <row r="106" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="4"/>
       <c r="C106" s="5"/>
@@ -23447,7 +23358,7 @@
       <c r="DM106" s="5"/>
       <c r="DN106" s="5"/>
     </row>
-    <row r="107" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="4"/>
       <c r="C107" s="5"/>
@@ -23564,7 +23475,7 @@
       <c r="DM107" s="5"/>
       <c r="DN107" s="5"/>
     </row>
-    <row r="108" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="4"/>
       <c r="C108" s="5"/>
@@ -23681,7 +23592,7 @@
       <c r="DM108" s="5"/>
       <c r="DN108" s="5"/>
     </row>
-    <row r="109" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="4"/>
       <c r="C109" s="5"/>
@@ -23798,7 +23709,7 @@
       <c r="DM109" s="5"/>
       <c r="DN109" s="5"/>
     </row>
-    <row r="110" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
       <c r="B110" s="4"/>
       <c r="C110" s="5"/>
@@ -23915,7 +23826,7 @@
       <c r="DM110" s="5"/>
       <c r="DN110" s="5"/>
     </row>
-    <row r="111" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="4"/>
       <c r="C111" s="5"/>
@@ -24032,7 +23943,7 @@
       <c r="DM111" s="5"/>
       <c r="DN111" s="5"/>
     </row>
-    <row r="112" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="4"/>
       <c r="C112" s="5"/>
@@ -24149,7 +24060,7 @@
       <c r="DM112" s="5"/>
       <c r="DN112" s="5"/>
     </row>
-    <row r="113" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="4"/>
       <c r="C113" s="5"/>
@@ -24266,7 +24177,7 @@
       <c r="DM113" s="5"/>
       <c r="DN113" s="5"/>
     </row>
-    <row r="114" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="4"/>
       <c r="C114" s="5"/>
@@ -24383,7 +24294,7 @@
       <c r="DM114" s="5"/>
       <c r="DN114" s="5"/>
     </row>
-    <row r="115" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="4"/>
       <c r="C115" s="5"/>
@@ -24500,7 +24411,7 @@
       <c r="DM115" s="5"/>
       <c r="DN115" s="5"/>
     </row>
-    <row r="116" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="4"/>
       <c r="C116" s="5"/>
@@ -24617,7 +24528,7 @@
       <c r="DM116" s="5"/>
       <c r="DN116" s="5"/>
     </row>
-    <row r="117" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="4"/>
       <c r="C117" s="5"/>
@@ -24734,7 +24645,7 @@
       <c r="DM117" s="5"/>
       <c r="DN117" s="5"/>
     </row>
-    <row r="118" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
       <c r="B118" s="4"/>
       <c r="C118" s="5"/>
@@ -24851,7 +24762,7 @@
       <c r="DM118" s="5"/>
       <c r="DN118" s="5"/>
     </row>
-    <row r="119" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
       <c r="B119" s="4"/>
       <c r="C119" s="5"/>
@@ -24968,7 +24879,7 @@
       <c r="DM119" s="5"/>
       <c r="DN119" s="5"/>
     </row>
-    <row r="120" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
       <c r="B120" s="4"/>
       <c r="C120" s="5"/>
@@ -25085,7 +24996,7 @@
       <c r="DM120" s="5"/>
       <c r="DN120" s="5"/>
     </row>
-    <row r="121" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
       <c r="B121" s="4"/>
       <c r="C121" s="5"/>
@@ -25202,7 +25113,7 @@
       <c r="DM121" s="5"/>
       <c r="DN121" s="5"/>
     </row>
-    <row r="122" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
       <c r="B122" s="4"/>
       <c r="C122" s="5"/>
@@ -25319,7 +25230,7 @@
       <c r="DM122" s="5"/>
       <c r="DN122" s="5"/>
     </row>
-    <row r="123" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
       <c r="B123" s="4"/>
       <c r="C123" s="5"/>
@@ -25436,7 +25347,7 @@
       <c r="DM123" s="5"/>
       <c r="DN123" s="5"/>
     </row>
-    <row r="124" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="4"/>
       <c r="C124" s="5"/>
@@ -25553,7 +25464,7 @@
       <c r="DM124" s="5"/>
       <c r="DN124" s="5"/>
     </row>
-    <row r="125" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="4"/>
       <c r="C125" s="5"/>
@@ -25670,7 +25581,7 @@
       <c r="DM125" s="5"/>
       <c r="DN125" s="5"/>
     </row>
-    <row r="126" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="4"/>
       <c r="C126" s="5"/>
@@ -25787,7 +25698,7 @@
       <c r="DM126" s="5"/>
       <c r="DN126" s="5"/>
     </row>
-    <row r="127" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="4"/>
       <c r="C127" s="5"/>
@@ -25904,7 +25815,7 @@
       <c r="DM127" s="5"/>
       <c r="DN127" s="5"/>
     </row>
-    <row r="128" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="4"/>
       <c r="C128" s="5"/>
@@ -26021,7 +25932,7 @@
       <c r="DM128" s="5"/>
       <c r="DN128" s="5"/>
     </row>
-    <row r="129" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="4"/>
       <c r="C129" s="5"/>
@@ -26138,7 +26049,7 @@
       <c r="DM129" s="5"/>
       <c r="DN129" s="5"/>
     </row>
-    <row r="130" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="4"/>
       <c r="C130" s="5"/>
@@ -26255,7 +26166,7 @@
       <c r="DM130" s="5"/>
       <c r="DN130" s="5"/>
     </row>
-    <row r="131" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="4"/>
       <c r="C131" s="5"/>
@@ -26372,7 +26283,7 @@
       <c r="DM131" s="5"/>
       <c r="DN131" s="5"/>
     </row>
-    <row r="132" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="4"/>
       <c r="C132" s="5"/>
@@ -26489,7 +26400,7 @@
       <c r="DM132" s="5"/>
       <c r="DN132" s="5"/>
     </row>
-    <row r="133" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="4"/>
       <c r="C133" s="5"/>
@@ -26606,7 +26517,7 @@
       <c r="DM133" s="5"/>
       <c r="DN133" s="5"/>
     </row>
-    <row r="134" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="4"/>
       <c r="C134" s="5"/>
@@ -26723,7 +26634,7 @@
       <c r="DM134" s="5"/>
       <c r="DN134" s="5"/>
     </row>
-    <row r="135" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="4"/>
       <c r="C135" s="5"/>
@@ -26840,7 +26751,7 @@
       <c r="DM135" s="5"/>
       <c r="DN135" s="5"/>
     </row>
-    <row r="136" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="4"/>
       <c r="C136" s="5"/>
@@ -26957,7 +26868,7 @@
       <c r="DM136" s="5"/>
       <c r="DN136" s="5"/>
     </row>
-    <row r="137" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="4"/>
       <c r="C137" s="5"/>
@@ -27074,7 +26985,7 @@
       <c r="DM137" s="5"/>
       <c r="DN137" s="5"/>
     </row>
-    <row r="138" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="4"/>
       <c r="C138" s="5"/>
@@ -27191,7 +27102,7 @@
       <c r="DM138" s="5"/>
       <c r="DN138" s="5"/>
     </row>
-    <row r="139" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="4"/>
       <c r="C139" s="5"/>
@@ -27308,7 +27219,7 @@
       <c r="DM139" s="5"/>
       <c r="DN139" s="5"/>
     </row>
-    <row r="140" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="4"/>
       <c r="C140" s="5"/>
@@ -27425,7 +27336,7 @@
       <c r="DM140" s="5"/>
       <c r="DN140" s="5"/>
     </row>
-    <row r="141" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="4"/>
       <c r="C141" s="5"/>
@@ -27542,7 +27453,7 @@
       <c r="DM141" s="5"/>
       <c r="DN141" s="5"/>
     </row>
-    <row r="142" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="4"/>
       <c r="C142" s="5"/>
@@ -27659,7 +27570,7 @@
       <c r="DM142" s="5"/>
       <c r="DN142" s="5"/>
     </row>
-    <row r="143" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="4"/>
       <c r="C143" s="5"/>
@@ -27776,7 +27687,7 @@
       <c r="DM143" s="5"/>
       <c r="DN143" s="5"/>
     </row>
-    <row r="144" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="4"/>
       <c r="C144" s="5"/>
@@ -27893,7 +27804,7 @@
       <c r="DM144" s="5"/>
       <c r="DN144" s="5"/>
     </row>
-    <row r="145" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="4"/>
       <c r="C145" s="5"/>
@@ -28010,7 +27921,7 @@
       <c r="DM145" s="5"/>
       <c r="DN145" s="5"/>
     </row>
-    <row r="146" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="4"/>
       <c r="C146" s="5"/>
@@ -28127,7 +28038,7 @@
       <c r="DM146" s="5"/>
       <c r="DN146" s="5"/>
     </row>
-    <row r="147" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="4"/>
       <c r="C147" s="5"/>
@@ -28244,7 +28155,7 @@
       <c r="DM147" s="5"/>
       <c r="DN147" s="5"/>
     </row>
-    <row r="148" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="4"/>
       <c r="C148" s="5"/>
@@ -28361,7 +28272,7 @@
       <c r="DM148" s="5"/>
       <c r="DN148" s="5"/>
     </row>
-    <row r="149" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="4"/>
       <c r="C149" s="5"/>
@@ -28478,7 +28389,7 @@
       <c r="DM149" s="5"/>
       <c r="DN149" s="5"/>
     </row>
-    <row r="150" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="4"/>
       <c r="C150" s="5"/>
@@ -28595,7 +28506,7 @@
       <c r="DM150" s="5"/>
       <c r="DN150" s="5"/>
     </row>
-    <row r="151" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="4"/>
       <c r="C151" s="5"/>
@@ -28712,7 +28623,7 @@
       <c r="DM151" s="5"/>
       <c r="DN151" s="5"/>
     </row>
-    <row r="152" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="4"/>
       <c r="C152" s="5"/>
@@ -28829,7 +28740,7 @@
       <c r="DM152" s="5"/>
       <c r="DN152" s="5"/>
     </row>
-    <row r="153" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="4"/>
       <c r="C153" s="5"/>
@@ -28946,7 +28857,7 @@
       <c r="DM153" s="5"/>
       <c r="DN153" s="5"/>
     </row>
-    <row r="154" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="4"/>
       <c r="C154" s="5"/>
@@ -29063,7 +28974,7 @@
       <c r="DM154" s="5"/>
       <c r="DN154" s="5"/>
     </row>
-    <row r="155" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="4"/>
       <c r="C155" s="5"/>
@@ -29180,7 +29091,7 @@
       <c r="DM155" s="5"/>
       <c r="DN155" s="5"/>
     </row>
-    <row r="156" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="4"/>
       <c r="C156" s="5"/>
@@ -29297,7 +29208,7 @@
       <c r="DM156" s="5"/>
       <c r="DN156" s="5"/>
     </row>
-    <row r="157" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="4"/>
       <c r="C157" s="5"/>
@@ -29414,7 +29325,7 @@
       <c r="DM157" s="5"/>
       <c r="DN157" s="5"/>
     </row>
-    <row r="158" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
       <c r="B158" s="4"/>
       <c r="C158" s="5"/>
@@ -29531,7 +29442,7 @@
       <c r="DM158" s="5"/>
       <c r="DN158" s="5"/>
     </row>
-    <row r="159" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="4"/>
       <c r="C159" s="5"/>
@@ -29648,7 +29559,7 @@
       <c r="DM159" s="5"/>
       <c r="DN159" s="5"/>
     </row>
-    <row r="160" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="B160" s="4"/>
       <c r="C160" s="5"/>
@@ -29765,7 +29676,7 @@
       <c r="DM160" s="5"/>
       <c r="DN160" s="5"/>
     </row>
-    <row r="161" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="4"/>
       <c r="C161" s="5"/>
@@ -29882,7 +29793,7 @@
       <c r="DM161" s="5"/>
       <c r="DN161" s="5"/>
     </row>
-    <row r="162" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="4"/>
       <c r="C162" s="5"/>
@@ -29999,7 +29910,7 @@
       <c r="DM162" s="5"/>
       <c r="DN162" s="5"/>
     </row>
-    <row r="163" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="4"/>
       <c r="C163" s="5"/>
@@ -30116,7 +30027,7 @@
       <c r="DM163" s="5"/>
       <c r="DN163" s="5"/>
     </row>
-    <row r="164" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="4"/>
       <c r="C164" s="5"/>
@@ -30233,7 +30144,7 @@
       <c r="DM164" s="5"/>
       <c r="DN164" s="5"/>
     </row>
-    <row r="165" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="4"/>
       <c r="C165" s="5"/>
@@ -30350,7 +30261,7 @@
       <c r="DM165" s="5"/>
       <c r="DN165" s="5"/>
     </row>
-    <row r="166" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="4"/>
       <c r="C166" s="5"/>
@@ -30467,7 +30378,7 @@
       <c r="DM166" s="5"/>
       <c r="DN166" s="5"/>
     </row>
-    <row r="167" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="4"/>
       <c r="C167" s="5"/>
@@ -30584,7 +30495,7 @@
       <c r="DM167" s="5"/>
       <c r="DN167" s="5"/>
     </row>
-    <row r="168" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="B168" s="4"/>
       <c r="C168" s="5"/>
@@ -30701,7 +30612,7 @@
       <c r="DM168" s="5"/>
       <c r="DN168" s="5"/>
     </row>
-    <row r="169" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="4"/>
       <c r="C169" s="5"/>
@@ -30818,7 +30729,7 @@
       <c r="DM169" s="5"/>
       <c r="DN169" s="5"/>
     </row>
-    <row r="170" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="4"/>
       <c r="C170" s="5"/>
@@ -30935,7 +30846,7 @@
       <c r="DM170" s="5"/>
       <c r="DN170" s="5"/>
     </row>
-    <row r="171" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="4"/>
       <c r="C171" s="5"/>
@@ -31052,7 +30963,7 @@
       <c r="DM171" s="5"/>
       <c r="DN171" s="5"/>
     </row>
-    <row r="172" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="4"/>
       <c r="C172" s="5"/>
@@ -31169,7 +31080,7 @@
       <c r="DM172" s="5"/>
       <c r="DN172" s="5"/>
     </row>
-    <row r="173" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="4"/>
       <c r="C173" s="5"/>
@@ -31286,7 +31197,7 @@
       <c r="DM173" s="5"/>
       <c r="DN173" s="5"/>
     </row>
-    <row r="174" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="4"/>
       <c r="C174" s="5"/>
@@ -31403,7 +31314,7 @@
       <c r="DM174" s="5"/>
       <c r="DN174" s="5"/>
     </row>
-    <row r="175" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="4"/>
       <c r="C175" s="5"/>
@@ -31520,7 +31431,7 @@
       <c r="DM175" s="5"/>
       <c r="DN175" s="5"/>
     </row>
-    <row r="176" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="4"/>
       <c r="C176" s="5"/>
@@ -31637,7 +31548,7 @@
       <c r="DM176" s="5"/>
       <c r="DN176" s="5"/>
     </row>
-    <row r="177" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="4"/>
       <c r="C177" s="5"/>
@@ -31754,7 +31665,7 @@
       <c r="DM177" s="5"/>
       <c r="DN177" s="5"/>
     </row>
-    <row r="178" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="4"/>
       <c r="C178" s="5"/>
@@ -31871,7 +31782,7 @@
       <c r="DM178" s="5"/>
       <c r="DN178" s="5"/>
     </row>
-    <row r="179" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="4"/>
       <c r="C179" s="5"/>
@@ -31988,7 +31899,7 @@
       <c r="DM179" s="5"/>
       <c r="DN179" s="5"/>
     </row>
-    <row r="180" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="B180" s="4"/>
       <c r="C180" s="5"/>
@@ -32105,7 +32016,7 @@
       <c r="DM180" s="5"/>
       <c r="DN180" s="5"/>
     </row>
-    <row r="181" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="4"/>
       <c r="C181" s="5"/>
@@ -32222,7 +32133,7 @@
       <c r="DM181" s="5"/>
       <c r="DN181" s="5"/>
     </row>
-    <row r="182" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
       <c r="B182" s="4"/>
       <c r="C182" s="5"/>
@@ -32339,7 +32250,7 @@
       <c r="DM182" s="5"/>
       <c r="DN182" s="5"/>
     </row>
-    <row r="183" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
       <c r="B183" s="4"/>
       <c r="C183" s="5"/>
@@ -32456,7 +32367,7 @@
       <c r="DM183" s="5"/>
       <c r="DN183" s="5"/>
     </row>
-    <row r="184" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
       <c r="B184" s="4"/>
       <c r="C184" s="5"/>
@@ -32573,7 +32484,7 @@
       <c r="DM184" s="5"/>
       <c r="DN184" s="5"/>
     </row>
-    <row r="185" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
       <c r="B185" s="4"/>
       <c r="C185" s="5"/>
@@ -32690,7 +32601,7 @@
       <c r="DM185" s="5"/>
       <c r="DN185" s="5"/>
     </row>
-    <row r="186" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
       <c r="B186" s="4"/>
       <c r="C186" s="5"/>
@@ -32807,7 +32718,7 @@
       <c r="DM186" s="5"/>
       <c r="DN186" s="5"/>
     </row>
-    <row r="187" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="B187" s="4"/>
       <c r="C187" s="5"/>
@@ -32924,7 +32835,7 @@
       <c r="DM187" s="5"/>
       <c r="DN187" s="5"/>
     </row>
-    <row r="188" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
       <c r="B188" s="4"/>
       <c r="C188" s="5"/>
@@ -33041,7 +32952,7 @@
       <c r="DM188" s="5"/>
       <c r="DN188" s="5"/>
     </row>
-    <row r="189" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
       <c r="B189" s="4"/>
       <c r="C189" s="5"/>
@@ -33158,7 +33069,7 @@
       <c r="DM189" s="5"/>
       <c r="DN189" s="5"/>
     </row>
-    <row r="190" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
       <c r="B190" s="4"/>
       <c r="C190" s="5"/>
@@ -33275,7 +33186,7 @@
       <c r="DM190" s="5"/>
       <c r="DN190" s="5"/>
     </row>
-    <row r="191" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A191" s="5"/>
       <c r="B191" s="4"/>
       <c r="C191" s="5"/>
@@ -33392,7 +33303,7 @@
       <c r="DM191" s="5"/>
       <c r="DN191" s="5"/>
     </row>
-    <row r="192" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A192" s="5"/>
       <c r="B192" s="4"/>
       <c r="C192" s="5"/>
@@ -33509,7 +33420,7 @@
       <c r="DM192" s="5"/>
       <c r="DN192" s="5"/>
     </row>
-    <row r="193" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A193" s="5"/>
       <c r="B193" s="4"/>
       <c r="C193" s="5"/>
@@ -33626,7 +33537,7 @@
       <c r="DM193" s="5"/>
       <c r="DN193" s="5"/>
     </row>
-    <row r="194" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A194" s="5"/>
       <c r="B194" s="4"/>
       <c r="C194" s="5"/>
@@ -33743,7 +33654,7 @@
       <c r="DM194" s="5"/>
       <c r="DN194" s="5"/>
     </row>
-    <row r="195" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A195" s="5"/>
       <c r="B195" s="4"/>
       <c r="C195" s="5"/>
@@ -33860,7 +33771,7 @@
       <c r="DM195" s="5"/>
       <c r="DN195" s="5"/>
     </row>
-    <row r="196" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A196" s="5"/>
       <c r="B196" s="4"/>
       <c r="C196" s="5"/>
@@ -33977,7 +33888,7 @@
       <c r="DM196" s="5"/>
       <c r="DN196" s="5"/>
     </row>
-    <row r="197" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A197" s="5"/>
       <c r="B197" s="4"/>
       <c r="C197" s="5"/>
@@ -34094,7 +34005,7 @@
       <c r="DM197" s="5"/>
       <c r="DN197" s="5"/>
     </row>
-    <row r="198" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A198" s="5"/>
       <c r="B198" s="4"/>
       <c r="C198" s="5"/>
@@ -34211,7 +34122,7 @@
       <c r="DM198" s="5"/>
       <c r="DN198" s="5"/>
     </row>
-    <row r="199" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A199" s="5"/>
       <c r="B199" s="4"/>
       <c r="C199" s="5"/>
@@ -34328,7 +34239,7 @@
       <c r="DM199" s="5"/>
       <c r="DN199" s="5"/>
     </row>
-    <row r="200" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A200" s="5"/>
       <c r="B200" s="4"/>
       <c r="C200" s="5"/>
@@ -34445,7 +34356,7 @@
       <c r="DM200" s="5"/>
       <c r="DN200" s="5"/>
     </row>
-    <row r="201" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A201" s="5"/>
       <c r="B201" s="4"/>
       <c r="C201" s="5"/>
@@ -34562,7 +34473,7 @@
       <c r="DM201" s="5"/>
       <c r="DN201" s="5"/>
     </row>
-    <row r="202" spans="1:118" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:118" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A202" s="5"/>
       <c r="B202" s="4"/>
       <c r="C202" s="5"/>
@@ -34679,10 +34590,10 @@
       <c r="DM202" s="5"/>
       <c r="DN202" s="5"/>
     </row>
-    <row r="203" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:118" x14ac:dyDescent="0.25">
       <c r="M203" s="67"/>
     </row>
-    <row r="204" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:118" x14ac:dyDescent="0.25">
       <c r="M204" s="67"/>
     </row>
   </sheetData>
@@ -34756,14 +34667,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="20" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>21</v>
       </c>
@@ -34795,8 +34706,8 @@
         <v>594</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:10" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>595</v>
       </c>
@@ -34844,14 +34755,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="20" customFormat="1" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="20" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -34865,7 +34776,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>421</v>
       </c>
@@ -34933,7 +34844,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>443</v>
       </c>
@@ -35001,7 +34912,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="108">
         <v>1</v>
       </c>
@@ -35069,7 +34980,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="108">
         <v>2</v>
       </c>
@@ -35137,7 +35048,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -35167,15 +35078,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>990</v>
       </c>
       <c r="B1" s="111"/>
     </row>
-    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
         <v>641</v>
       </c>
@@ -35183,13 +35094,13 @@
         <v>991</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="111"/>
       <c r="B3" s="111" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
         <v>992</v>
       </c>
@@ -35197,7 +35108,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -35216,14 +35127,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="20" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -35237,7 +35148,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>421</v>
       </c>
@@ -35251,7 +35162,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>435</v>
       </c>
@@ -35265,7 +35176,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="110">
         <v>1</v>
       </c>
@@ -35279,7 +35190,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="110">
         <v>2</v>
       </c>
@@ -35293,7 +35204,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="110">
         <v>3</v>
       </c>
@@ -35307,7 +35218,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -35321,7 +35232,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="111">
         <v>1</v>
       </c>
@@ -35335,7 +35246,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="111">
         <v>2</v>
       </c>
@@ -35349,7 +35260,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="111">
         <v>3</v>
       </c>
@@ -35363,7 +35274,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="111">
         <v>4</v>
       </c>
@@ -35377,7 +35288,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="111">
         <v>1</v>
       </c>
@@ -35391,7 +35302,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="111">
         <v>2</v>
       </c>
@@ -35405,7 +35316,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="111">
         <v>3</v>
       </c>
@@ -35419,7 +35330,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="111">
         <v>4</v>
       </c>
@@ -35433,7 +35344,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="111">
         <v>1</v>
       </c>
@@ -35447,7 +35358,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="111">
         <v>2</v>
       </c>
@@ -35461,7 +35372,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="111">
         <v>3</v>
       </c>
@@ -35475,7 +35386,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="111">
         <v>4</v>
       </c>
@@ -35489,7 +35400,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="111">
         <v>1</v>
       </c>
@@ -35503,7 +35414,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="111">
         <v>2</v>
       </c>
@@ -35517,7 +35428,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="111">
         <v>3</v>
       </c>
@@ -35531,7 +35442,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="111">
         <v>4</v>
       </c>
@@ -35545,7 +35456,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="111">
         <v>1</v>
       </c>
@@ -35559,7 +35470,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="111">
         <v>2</v>
       </c>
@@ -35573,7 +35484,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="111">
         <v>3</v>
       </c>
@@ -35587,7 +35498,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="111">
         <v>4</v>
       </c>
@@ -35601,7 +35512,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="111">
         <v>1</v>
       </c>
@@ -35615,7 +35526,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="111">
         <v>2</v>
       </c>
@@ -35629,7 +35540,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="111">
         <v>3</v>
       </c>
@@ -35643,7 +35554,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="111">
         <v>4</v>
       </c>
@@ -35657,7 +35568,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="111">
         <v>1</v>
       </c>
@@ -35671,7 +35582,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="111">
         <v>2</v>
       </c>
@@ -35685,7 +35596,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="111">
         <v>3</v>
       </c>
@@ -35699,7 +35610,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="111">
         <v>4</v>
       </c>
@@ -35713,7 +35624,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="111">
         <v>1</v>
       </c>
@@ -35727,7 +35638,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="111">
         <v>2</v>
       </c>
@@ -35741,7 +35652,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="111">
         <v>3</v>
       </c>
@@ -35755,7 +35666,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="111">
         <v>4</v>
       </c>
@@ -35769,7 +35680,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="111">
         <v>1</v>
       </c>
@@ -35783,7 +35694,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="111">
         <v>2</v>
       </c>
@@ -35797,7 +35708,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="111">
         <v>3</v>
       </c>
@@ -35811,7 +35722,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="111">
         <v>4</v>
       </c>
@@ -35846,14 +35757,14 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="20" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -35873,7 +35784,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>421</v>
       </c>
@@ -35893,7 +35804,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>429</v>
       </c>
@@ -35913,7 +35824,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="111">
         <v>1</v>
       </c>
@@ -35927,7 +35838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="111">
         <v>2</v>
       </c>
@@ -35941,7 +35852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="111">
         <v>3</v>
       </c>
@@ -35955,7 +35866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="111">
         <v>4</v>
       </c>
@@ -35969,7 +35880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="111">
         <v>5</v>
       </c>
@@ -35983,7 +35894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="111">
         <v>6</v>
       </c>
@@ -35997,7 +35908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="111">
         <v>7</v>
       </c>
@@ -36011,7 +35922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="111">
         <v>8</v>
       </c>
@@ -36025,7 +35936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="111">
         <v>9</v>
       </c>
@@ -36039,7 +35950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="111">
         <v>10</v>
       </c>
@@ -36053,27 +35964,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -36093,18 +36004,18 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="21" max="22" width="11" style="111"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -36118,7 +36029,10 @@
         <v>377</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>1179</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1178</v>
       </c>
       <c r="N1" t="s">
         <v>383</v>
@@ -36137,7 +36051,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -36149,6 +36063,15 @@
       </c>
       <c r="G2" t="s">
         <v>89</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>67</v>
       </c>
       <c r="Q2" t="s">
         <v>7</v>
@@ -36164,7 +36087,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -36178,13 +36101,13 @@
         <v>90</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q3" t="s">
         <v>519</v>
@@ -36200,7 +36123,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>146</v>
       </c>
@@ -36211,13 +36134,13 @@
         <v>91</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q4" t="s">
         <v>520</v>
@@ -36230,227 +36153,216 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>92</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q5" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q6" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q7" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" t="s">
-        <v>62</v>
+        <v>45</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="N8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q8" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
         <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
+      </c>
+      <c r="L9" t="s">
+        <v>64</v>
       </c>
       <c r="N9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q9" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>97</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N10" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="Q10" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>98</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="L11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N11" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="Q11" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>85</v>
       </c>
       <c r="K12" t="s">
-        <v>38</v>
+        <v>1174</v>
       </c>
       <c r="L12" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="N12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="K13" t="s">
-        <v>1174</v>
+        <v>37</v>
       </c>
       <c r="L13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" t="s">
         <v>56</v>
       </c>
-      <c r="N13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="K14" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" t="s">
+    </row>
+    <row r="21" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" t="s">
         <v>85</v>
       </c>
-      <c r="N14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="K15" t="s">
-        <v>48</v>
-      </c>
-      <c r="N15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="K16" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K17" t="s">
-        <v>50</v>
-      </c>
-      <c r="N17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K18" t="s">
-        <v>51</v>
-      </c>
-      <c r="N18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K19" t="s">
-        <v>52</v>
-      </c>
-      <c r="N19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K20" t="s">
-        <v>53</v>
-      </c>
-      <c r="N20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K21" t="s">
-        <v>54</v>
-      </c>
-      <c r="N21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="11:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="11:14" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
-        <v>55</v>
-      </c>
-      <c r="N22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="11:14" x14ac:dyDescent="0.3">
-      <c r="K23" t="s">
         <v>56</v>
       </c>
     </row>
@@ -36465,17 +36377,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.09765625" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="20" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -36507,7 +36419,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>499</v>
       </c>
@@ -36539,7 +36451,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>507</v>
       </c>
@@ -36571,7 +36483,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="65" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="65" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="65">
         <v>1</v>
       </c>
@@ -36595,31 +36507,31 @@
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.19921875" customWidth="1"/>
-    <col min="2" max="2" width="15.19921875" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="21.09765625" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
     <col min="7" max="7" width="28.5" customWidth="1"/>
     <col min="8" max="8" width="28.5" style="111" customWidth="1"/>
-    <col min="9" max="9" width="19.19921875" customWidth="1"/>
+    <col min="9" max="9" width="19.25" customWidth="1"/>
     <col min="10" max="11" width="16.5" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
     <col min="13" max="13" width="21.5" customWidth="1"/>
-    <col min="14" max="14" width="19.19921875" customWidth="1"/>
+    <col min="14" max="14" width="19.25" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="19" max="19" width="5.8984375" customWidth="1"/>
+    <col min="19" max="19" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="20" customFormat="1" ht="312" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="20" customFormat="1" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -36663,7 +36575,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -36707,7 +36619,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>330</v>
       </c>
@@ -36752,7 +36664,7 @@
       </c>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:17" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65">
         <v>1</v>
       </c>
@@ -36785,7 +36697,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65">
         <v>2</v>
       </c>
@@ -36818,164 +36730,164 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G7" s="66"/>
       <c r="H7" s="66"/>
     </row>
-    <row r="8" spans="1:17" s="65" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G8" s="66"/>
       <c r="H8" s="66"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G9" s="2"/>
       <c r="H9" s="66"/>
       <c r="I9" s="2"/>
       <c r="K9" s="65"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G10" s="2"/>
       <c r="H10" s="66"/>
       <c r="I10" s="2"/>
       <c r="K10" s="65"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G11" s="2"/>
       <c r="H11" s="66"/>
       <c r="I11" s="2"/>
       <c r="K11" s="65"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G12" s="2"/>
       <c r="H12" s="66"/>
       <c r="I12" s="2"/>
       <c r="K12" s="65"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G13" s="2"/>
       <c r="H13" s="66"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G14" s="2"/>
       <c r="H14" s="66"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G15" s="2"/>
       <c r="H15" s="66"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G16" s="2"/>
       <c r="H16" s="66"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G17" s="2"/>
       <c r="H17" s="66"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G18" s="2"/>
       <c r="H18" s="66"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G19" s="2"/>
       <c r="H19" s="66"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G20" s="2"/>
       <c r="H20" s="66"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G21" s="2"/>
       <c r="H21" s="66"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G22" s="2"/>
       <c r="H22" s="66"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G23" s="2"/>
       <c r="H23" s="66"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G24" s="2"/>
       <c r="H24" s="66"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G25" s="2"/>
       <c r="H25" s="66"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G26" s="2"/>
       <c r="H26" s="66"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G27" s="2"/>
       <c r="H27" s="66"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G28" s="2"/>
       <c r="H28" s="66"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G29" s="2"/>
       <c r="H29" s="66"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G30" s="2"/>
       <c r="H30" s="66"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G31" s="2"/>
       <c r="H31" s="66"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G32" s="2"/>
       <c r="H32" s="66"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G33" s="2"/>
       <c r="H33" s="66"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G34" s="2"/>
       <c r="H34" s="66"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G35" s="2"/>
       <c r="H35" s="66"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G36" s="2"/>
       <c r="H36" s="66"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G37" s="2"/>
       <c r="H37" s="66"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G38" s="2"/>
       <c r="H38" s="66"/>
       <c r="I38" s="2"/>
@@ -37003,28 +36915,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="17" customWidth="1"/>
     <col min="4" max="5" width="17" style="65" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
     <col min="17" max="17" width="11" style="65"/>
-    <col min="18" max="18" width="82.19921875" customWidth="1"/>
-    <col min="22" max="22" width="10.69921875" customWidth="1"/>
-    <col min="23" max="23" width="56.69921875" customWidth="1"/>
-    <col min="24" max="25" width="10.69921875" customWidth="1"/>
+    <col min="18" max="18" width="82.25" customWidth="1"/>
+    <col min="22" max="22" width="10.75" customWidth="1"/>
+    <col min="23" max="23" width="56.75" customWidth="1"/>
+    <col min="24" max="25" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="20" customFormat="1" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="20" customFormat="1" ht="174" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -37080,7 +36992,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -37131,7 +37043,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" s="7" customFormat="1" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>517</v>
       </c>
@@ -37187,7 +37099,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65">
         <v>1</v>
       </c>
@@ -37229,7 +37141,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65">
         <v>2</v>
       </c>
@@ -37271,16 +37183,16 @@
         <v>929</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
       <c r="P7" s="59"/>
       <c r="Q7" s="82"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q8" s="82"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L1048576" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Zenodo, Figshare, Crossref"</formula1>
     </dataValidation>
@@ -37293,6 +37205,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1048576" xr:uid="{00000000-0002-0000-0400-000003000000}">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1048576" xr:uid="{00000000-0002-0000-0400-000004000000}">
+      <formula1>Dataset_enumeration</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H1048576" xr:uid="{00000000-0002-0000-0400-000005000000}">
+      <formula1>Database_enumeration</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="P5" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
@@ -37300,36 +37218,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000005000000}">
-          <x14:formula1>
-            <xm:f>for_internal_use_only!$L$3:$L$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>H8:H1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000006000000}">
-          <x14:formula1>
-            <xm:f>'G:\20191031_excel2mmcif_addition_of_lifetime_based_analysis\example\[excel_example.xlsx]for_internal_use_only'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>H7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000007000000}">
-          <x14:formula1>
-            <xm:f>'K:\HankeC\work\for_PDB\excel2mmcif\20191031_excel2mmcif_addition_of_lifetime_based_analysis\20191106_preparation_of_T4L_files\raw_files_for_excel2mmcif\example\[excel_example_old.xlsx]for_internal_use_only'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>H5:H6 F5:F6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000004000000}">
-          <x14:formula1>
-            <xm:f>for_internal_use_only!$K$3:$K$23</xm:f>
-          </x14:formula1>
-          <xm:sqref>F7:F1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -37338,24 +37226,24 @@
   <dimension ref="A1:H202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="A3:G4"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.69921875" customWidth="1"/>
-    <col min="3" max="3" width="39.69921875" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="39.75" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
-    <col min="7" max="7" width="73.19921875" customWidth="1"/>
-    <col min="10" max="10" width="10.69921875" customWidth="1"/>
+    <col min="7" max="7" width="73.25" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="20" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="20" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -37378,7 +37266,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -37401,7 +37289,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>352</v>
       </c>
@@ -37424,7 +37312,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65">
         <v>1</v>
       </c>
@@ -37446,7 +37334,7 @@
       </c>
       <c r="H5" s="56"/>
     </row>
-    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65">
         <v>2</v>
       </c>
@@ -37467,7 +37355,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65">
         <v>3</v>
       </c>
@@ -37488,7 +37376,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="65">
         <v>4</v>
       </c>
@@ -37509,581 +37397,567 @@
         <v>938</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="E9" s="1"/>
       <c r="G9" s="56"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="E10" s="1"/>
       <c r="G10" s="56"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="E11" s="1"/>
       <c r="G11" s="56"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="E12" s="1"/>
       <c r="G12" s="56"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="E13" s="1"/>
       <c r="G13" s="56"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="E14" s="1"/>
       <c r="G14" s="56"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="E15" s="1"/>
       <c r="G15" s="56"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="E16" s="1"/>
       <c r="G16" s="56"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="E17" s="1"/>
       <c r="G17" s="56"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="2"/>
       <c r="E18" s="1"/>
       <c r="G18" s="56"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
       <c r="E19" s="1"/>
       <c r="G19" s="56"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="2"/>
       <c r="E20" s="1"/>
       <c r="G20" s="56"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="E21" s="1"/>
       <c r="G21" s="56"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="2"/>
       <c r="E22" s="1"/>
       <c r="G22" s="56"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
       <c r="E23" s="1"/>
       <c r="G23" s="56"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="2"/>
       <c r="E24" s="1"/>
       <c r="G24" s="56"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
       <c r="E25" s="1"/>
       <c r="G25" s="56"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="E26" s="1"/>
       <c r="G26" s="56"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="E27" s="1"/>
       <c r="G27" s="56"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
       <c r="E28" s="1"/>
       <c r="G28" s="56"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="E29" s="1"/>
       <c r="G29" s="56"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="E30" s="1"/>
       <c r="G30" s="56"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="E31" s="1"/>
       <c r="G31" s="56"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="E32" s="1"/>
       <c r="G32" s="56"/>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" s="2"/>
       <c r="E33" s="1"/>
       <c r="G33" s="56"/>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="E34" s="1"/>
       <c r="G34" s="56"/>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="E35" s="1"/>
       <c r="G35" s="56"/>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="E36" s="1"/>
       <c r="G36" s="56"/>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="E37" s="1"/>
       <c r="G37" s="56"/>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H39" s="56"/>
     </row>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H55" s="56"/>
     </row>
-    <row r="57" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H57" s="56"/>
     </row>
-    <row r="59" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H59" s="56"/>
     </row>
-    <row r="61" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H61" s="56"/>
     </row>
-    <row r="63" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H63" s="56"/>
     </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H65" s="56"/>
     </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H71" s="56"/>
     </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H73" s="56"/>
     </row>
-    <row r="75" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H75" s="56"/>
     </row>
-    <row r="77" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H77" s="56"/>
     </row>
-    <row r="79" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H79" s="56"/>
     </row>
-    <row r="80" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H80" s="56"/>
     </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H81" s="56"/>
     </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H82" s="56"/>
     </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H83" s="56"/>
     </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H84" s="56"/>
     </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H85" s="56"/>
     </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H86" s="56"/>
     </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H88" s="56"/>
     </row>
-    <row r="89" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H89" s="56"/>
     </row>
-    <row r="90" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H90" s="56"/>
     </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H91" s="56"/>
     </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H92" s="56"/>
     </row>
-    <row r="93" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H93" s="56"/>
     </row>
-    <row r="94" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H94" s="56"/>
     </row>
-    <row r="95" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H95" s="56"/>
     </row>
-    <row r="96" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H96" s="56"/>
     </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H97" s="56"/>
     </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H98" s="56"/>
     </row>
-    <row r="99" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H99" s="56"/>
     </row>
-    <row r="100" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H100" s="56"/>
     </row>
-    <row r="101" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H101" s="56"/>
     </row>
-    <row r="102" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H102" s="56"/>
     </row>
-    <row r="103" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H103" s="56"/>
     </row>
-    <row r="104" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H104" s="56"/>
     </row>
-    <row r="105" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H105" s="56"/>
     </row>
-    <row r="106" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H106" s="56"/>
     </row>
-    <row r="107" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H107" s="56"/>
     </row>
-    <row r="108" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H108" s="56"/>
     </row>
-    <row r="109" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H109" s="56"/>
     </row>
-    <row r="110" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H110" s="56"/>
     </row>
-    <row r="111" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H111" s="56"/>
     </row>
-    <row r="112" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H112" s="56"/>
     </row>
-    <row r="113" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H113" s="56"/>
     </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H114" s="56"/>
     </row>
-    <row r="115" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H115" s="56"/>
     </row>
-    <row r="116" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H116" s="56"/>
     </row>
-    <row r="117" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H117" s="56"/>
     </row>
-    <row r="118" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H118" s="56"/>
     </row>
-    <row r="119" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H119" s="56"/>
     </row>
-    <row r="120" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H120" s="56"/>
     </row>
-    <row r="121" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H121" s="56"/>
     </row>
-    <row r="122" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H122" s="56"/>
     </row>
-    <row r="123" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H123" s="56"/>
     </row>
-    <row r="124" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H124" s="56"/>
     </row>
-    <row r="125" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H125" s="56"/>
     </row>
-    <row r="126" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H126" s="56"/>
     </row>
-    <row r="127" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H127" s="56"/>
     </row>
-    <row r="128" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H128" s="56"/>
     </row>
-    <row r="129" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H129" s="56"/>
     </row>
-    <row r="130" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H130" s="56"/>
     </row>
-    <row r="131" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H131" s="56"/>
     </row>
-    <row r="132" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H132" s="56"/>
     </row>
-    <row r="133" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H133" s="56"/>
     </row>
-    <row r="134" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H134" s="56"/>
     </row>
-    <row r="135" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H135" s="56"/>
     </row>
-    <row r="136" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H136" s="56"/>
     </row>
-    <row r="137" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H137" s="56"/>
     </row>
-    <row r="138" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H138" s="56"/>
     </row>
-    <row r="139" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H139" s="56"/>
     </row>
-    <row r="140" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H140" s="56"/>
     </row>
-    <row r="141" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H141" s="56"/>
     </row>
-    <row r="142" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H142" s="56"/>
     </row>
-    <row r="143" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H143" s="56"/>
     </row>
-    <row r="144" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H144" s="56"/>
     </row>
-    <row r="145" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H145" s="56"/>
     </row>
-    <row r="146" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H146" s="56"/>
     </row>
-    <row r="147" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H147" s="56"/>
     </row>
-    <row r="148" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H148" s="56"/>
     </row>
-    <row r="149" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H149" s="56"/>
     </row>
-    <row r="150" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H150" s="56"/>
     </row>
-    <row r="151" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H151" s="56"/>
     </row>
-    <row r="152" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H152" s="56"/>
     </row>
-    <row r="153" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H153" s="56"/>
     </row>
-    <row r="154" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H154" s="56"/>
     </row>
-    <row r="155" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H155" s="56"/>
     </row>
-    <row r="156" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H156" s="56"/>
     </row>
-    <row r="157" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H157" s="56"/>
     </row>
-    <row r="158" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H158" s="56"/>
     </row>
-    <row r="159" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H159" s="56"/>
     </row>
-    <row r="160" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H160" s="56"/>
     </row>
-    <row r="161" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H161" s="56"/>
     </row>
-    <row r="162" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H162" s="56"/>
     </row>
-    <row r="163" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H163" s="56"/>
     </row>
-    <row r="164" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H164" s="56"/>
     </row>
-    <row r="165" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H165" s="56"/>
     </row>
-    <row r="166" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H166" s="56"/>
     </row>
-    <row r="167" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H167" s="56"/>
     </row>
-    <row r="168" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H168" s="56"/>
     </row>
-    <row r="169" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H169" s="56"/>
     </row>
-    <row r="170" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H170" s="56"/>
     </row>
-    <row r="171" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H171" s="56"/>
     </row>
-    <row r="172" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H172" s="56"/>
     </row>
-    <row r="173" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H173" s="56"/>
     </row>
-    <row r="174" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H174" s="56"/>
     </row>
-    <row r="175" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H175" s="56"/>
     </row>
-    <row r="176" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H176" s="56"/>
     </row>
-    <row r="177" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H177" s="56"/>
     </row>
-    <row r="178" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H178" s="56"/>
     </row>
-    <row r="179" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H179" s="56"/>
     </row>
-    <row r="180" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H180" s="56"/>
     </row>
-    <row r="181" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H181" s="56"/>
     </row>
-    <row r="182" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H182" s="56"/>
     </row>
-    <row r="183" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H183" s="56"/>
     </row>
-    <row r="184" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H184" s="56"/>
     </row>
-    <row r="185" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H185" s="56"/>
     </row>
-    <row r="186" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H186" s="56"/>
     </row>
-    <row r="187" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H187" s="56"/>
     </row>
-    <row r="188" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H188" s="56"/>
     </row>
-    <row r="189" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H189" s="56"/>
     </row>
-    <row r="190" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H190" s="56"/>
     </row>
-    <row r="191" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H191" s="56"/>
     </row>
-    <row r="192" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H192" s="56"/>
     </row>
-    <row r="193" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H193" s="56"/>
     </row>
-    <row r="194" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H194" s="56"/>
     </row>
-    <row r="195" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H195" s="56"/>
     </row>
-    <row r="196" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H196" s="56"/>
     </row>
-    <row r="197" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H197" s="56"/>
     </row>
-    <row r="198" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H198" s="56"/>
     </row>
-    <row r="199" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H199" s="56"/>
     </row>
-    <row r="200" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H200" s="56"/>
     </row>
-    <row r="201" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H201" s="56"/>
     </row>
-    <row r="202" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H202" s="56"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataConsolidate/>
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1048576" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Input data or restraints, Modeling or post-processing output, Modeling workflow or script, Visualization script, Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1048576" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>external_reference_id</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1048576" xr:uid="{00000000-0002-0000-0500-000002000000}">
+      <formula1>External_file_format_enumeration</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
-          <x14:formula1>
-            <xm:f>for_internal_use_only!$N$3:$N$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>D9:D1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000003000000}">
-          <x14:formula1>
-            <xm:f>'K:\HankeC\work\for_PDB\excel2mmcif\20191031_excel2mmcif_addition_of_lifetime_based_analysis\20191106_preparation_of_T4L_files\raw_files_for_excel2mmcif\example\[excel_example_old.xlsx]for_internal_use_only'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D5:D8</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -38095,19 +37969,19 @@
       <selection activeCell="A2" sqref="A2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>484</v>
       </c>
@@ -38130,7 +38004,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>491</v>
       </c>
@@ -38153,7 +38027,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="65">
         <v>1</v>
       </c>
@@ -38176,7 +38050,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="65">
         <v>2</v>
       </c>
@@ -38195,97 +38069,97 @@
       </c>
       <c r="G6" s="65"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G7" s="60"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G8" s="60"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G9" s="60"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G10" s="60"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G11" s="60"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G12" s="60"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G13" s="60"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G14" s="60"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G15" s="60"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G16" s="60"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="60"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="60"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G19" s="60"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G20" s="60"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G21" s="60"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G22" s="60"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G23" s="60"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G24" s="60"/>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G25" s="60"/>
     </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G26" s="60"/>
     </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G27" s="60"/>
     </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G28" s="60"/>
     </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G29" s="60"/>
     </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G30" s="60"/>
     </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G31" s="60"/>
     </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G32" s="60"/>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" s="60"/>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="60"/>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G35" s="60"/>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G36" s="60"/>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G37" s="60"/>
     </row>
   </sheetData>
@@ -38306,21 +38180,21 @@
       <selection activeCell="C3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="15.69921875" customWidth="1"/>
-    <col min="10" max="10" width="18.69921875" customWidth="1"/>
-    <col min="11" max="15" width="12.19921875" customWidth="1"/>
-    <col min="16" max="16" width="18.69921875" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="18.75" customWidth="1"/>
+    <col min="11" max="15" width="12.25" customWidth="1"/>
+    <col min="16" max="16" width="18.75" customWidth="1"/>
     <col min="20" max="20" width="11" style="111"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="20" customFormat="1" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" s="20" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -38382,7 +38256,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -38452,7 +38326,7 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>359</v>
       </c>
@@ -38514,7 +38388,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="65">
         <v>1</v>
       </c>
@@ -38571,7 +38445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="65">
         <v>2</v>
       </c>
@@ -38628,7 +38502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="65"/>
       <c r="C7" s="65"/>
@@ -38649,7 +38523,7 @@
       <c r="R7" s="65"/>
       <c r="S7" s="65"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="65"/>
       <c r="B8" s="65"/>
       <c r="C8" s="65"/>
@@ -38670,31 +38544,31 @@
       <c r="R8" s="65"/>
       <c r="S8" s="65"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B9" s="65"/>
       <c r="D9" s="66"/>
       <c r="H9" s="2"/>
       <c r="I9" s="66"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B10" s="65"/>
       <c r="D10" s="66"/>
       <c r="H10" s="2"/>
       <c r="I10" s="66"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B11" s="65"/>
       <c r="D11" s="66"/>
       <c r="H11" s="2"/>
       <c r="I11" s="66"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B12" s="65"/>
       <c r="D12" s="66"/>
       <c r="H12" s="2"/>
       <c r="I12" s="66"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B13" s="65"/>
     </row>
   </sheetData>
@@ -38733,14 +38607,14 @@
       <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="20" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="20" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>641</v>
       </c>
@@ -38778,7 +38652,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="78" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>551</v>
       </c>
@@ -38816,7 +38690,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>553</v>
       </c>
@@ -38854,7 +38728,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -38886,7 +38760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
